--- a/tf_figure/tf_batch.xlsx
+++ b/tf_figure/tf_batch.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77.13333333333024</v>
+        <v>340.500000000019</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>59.28333333333125</v>
+        <v>428.6499999999388</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>75.04999999999703</v>
+        <v>344.7833333333484</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>73.81666666666376</v>
+        <v>362.0499999999994</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>84.9833333333298</v>
+        <v>543.8166666665007</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60.39999999999785</v>
+        <v>548.7999999998295</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67.54999999999745</v>
+        <v>557.2333333331552</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>63.36666666666435</v>
+        <v>376.9499999999858</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>62.9999999999977</v>
+        <v>373.2166666666559</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67.58333333333078</v>
+        <v>383.2166666666468</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>64.4166666666643</v>
+        <v>365.9666666666625</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>77.91666666666353</v>
+        <v>424.9166666666089</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>90.89999999999613</v>
+        <v>582.2999999997991</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>58.81666666666461</v>
+        <v>456.6333333332467</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82.33333333332995</v>
+        <v>389.5333333333077</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>79.39999999999678</v>
+        <v>518.3666666665239</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>61.23333333333114</v>
+        <v>350.9833333333428</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>73.96666666666376</v>
+        <v>552.1666666664931</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>78.93333333333014</v>
+        <v>382.1999999999811</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>72.23333333333052</v>
+        <v>494.4666666665456</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>83.56666666666321</v>
+        <v>455.5999999999143</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>64.74999999999761</v>
+        <v>352.2000000000083</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>66.19999999999753</v>
+        <v>475.1333333332299</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>64.48333333333096</v>
+        <v>432.8833333332683</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>65.74999999999756</v>
+        <v>496.2499999998773</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>61.9833333333311</v>
+        <v>350.4500000000099</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>64.33333333333097</v>
+        <v>400.7999999999641</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>70.89999999999726</v>
+        <v>428.1833333332726</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>79.19999999999679</v>
+        <v>525.9499999998503</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>80.41666666666339</v>
+        <v>352.4500000000081</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>85.04999999999646</v>
+        <v>407.6333333332913</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>58.78333333333128</v>
+        <v>505.0833333332026</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>59.18333333333126</v>
+        <v>343.9833333333492</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>64.16666666666431</v>
+        <v>468.433333333236</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>83.69999999999654</v>
+        <v>400.9333333332974</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>65.06666666666426</v>
+        <v>452.2833333332507</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>68.04999999999742</v>
+        <v>482.3333333332233</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>82.99999999999658</v>
+        <v>409.8499999999559</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>55.76666666666478</v>
+        <v>383.6666666666464</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>70.11666666666397</v>
+        <v>474.9666666665634</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>60.29999999999786</v>
+        <v>423.3999999999436</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>73.24999999999713</v>
+        <v>462.5333333332413</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>73.94999999999709</v>
+        <v>390.283333333307</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>79.31666666666345</v>
+        <v>376.6999999999861</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>75.69999999999699</v>
+        <v>459.6666666665773</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>74.56666666666372</v>
+        <v>410.5666666666219</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>70.36666666666396</v>
+        <v>405.0999999999602</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>71.06666666666392</v>
+        <v>457.383333333246</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>81.54999999999666</v>
+        <v>364.7166666666636</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>74.01666666666375</v>
+        <v>404.1999999999611</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>68.11666666666409</v>
+        <v>480.0333333332254</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>75.599999999997</v>
+        <v>403.8833333332947</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>67.9666666666641</v>
+        <v>380.2499999999828</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>74.3833333333304</v>
+        <v>446.0166666665897</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>66.1166666666642</v>
+        <v>424.9166666666089</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>60.93333333333116</v>
+        <v>540.93333333317</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>80.88333333333003</v>
+        <v>483.4166666665557</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>75.18333333333035</v>
+        <v>434.999999999933</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>80.43333333333005</v>
+        <v>507.2999999998673</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>84.74999999999648</v>
+        <v>465.6499999999052</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>81.76666666666331</v>
+        <v>452.4833333332505</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>65.93333333333088</v>
+        <v>553.6166666664918</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>74.4333333333304</v>
+        <v>458.7999999999114</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>72.16666666666386</v>
+        <v>437.6166666665973</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>61.21666666666447</v>
+        <v>372.1999999999902</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>83.58333333332988</v>
+        <v>436.6999999999315</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>88.63333333332959</v>
+        <v>438.9499999999294</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>80.41666666666339</v>
+        <v>471.4666666665665</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>61.86666666666444</v>
+        <v>424.816666666609</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>64.33333333333097</v>
+        <v>454.5666666665819</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>62.61666666666439</v>
+        <v>502.6499999998715</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>66.13333333333087</v>
+        <v>424.9833333332755</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>68.84999999999738</v>
+        <v>479.4999999998926</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>76.11666666666363</v>
+        <v>430.0833333332708</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>60.78333333333116</v>
+        <v>536.8166666665071</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>91.09999999999611</v>
+        <v>482.0499999998902</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>73.86666666666376</v>
+        <v>445.0333333332572</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>67.71666666666411</v>
+        <v>494.2499999998792</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>72.43333333333051</v>
+        <v>402.433333333296</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>65.86666666666422</v>
+        <v>426.7166666666072</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>63.99999999999765</v>
+        <v>435.2166666665995</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>65.43333333333091</v>
+        <v>425.8333333332747</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>75.48333333333034</v>
+        <v>368.5499999999935</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>66.63333333333084</v>
+        <v>418.0166666666152</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>99.16666666666232</v>
+        <v>504.1999999998701</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>85.76666666666308</v>
+        <v>437.2999999999309</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>67.04999999999748</v>
+        <v>340.9666666666852</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>68.4499999999974</v>
+        <v>349.8666666666771</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>66.1666666666642</v>
+        <v>416.6666666666164</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>74.18333333333041</v>
+        <v>588.6333333331266</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>92.34999999999604</v>
+        <v>339.35000000002</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>68.96666666666404</v>
+        <v>475.3499999998963</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>63.0999999999977</v>
+        <v>494.1499999998792</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>54.79999999999817</v>
+        <v>388.4166666666421</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>72.94999999999715</v>
+        <v>390.8166666666399</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>75.11666666666369</v>
+        <v>507.4999999998671</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>68.29999999999741</v>
+        <v>418.4833333332814</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>76.26666666666362</v>
+        <v>390.5833333333068</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>77.06666666666358</v>
+        <v>526.4666666665165</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>70.81666666666393</v>
+        <v>398.5333333332995</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>63.31666666666435</v>
+        <v>356.283333333338</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>74.78333333333038</v>
+        <v>441.2499999999274</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>70.01666666666398</v>
+        <v>431.8999999999359</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>64.86666666666427</v>
+        <v>383.2166666666468</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>62.83333333333105</v>
+        <v>422.0499999999448</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>79.88333333333009</v>
+        <v>372.7166666666564</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>82.08333333332996</v>
+        <v>516.5833333331922</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>65.6333333333309</v>
+        <v>446.1333333332562</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>58.81666666666461</v>
+        <v>389.6666666666409</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>65.24999999999758</v>
+        <v>495.6666666665445</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>84.19999999999651</v>
+        <v>456.0666666665805</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>63.53333333333101</v>
+        <v>455.5499999999143</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>60.74999999999783</v>
+        <v>461.8999999999086</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>61.58333333333112</v>
+        <v>365.5666666666629</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>81.89999999999664</v>
+        <v>361.2000000000002</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>73.78333333333043</v>
+        <v>459.583333333244</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>65.71666666666422</v>
+        <v>461.4333333332423</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>64.24999999999764</v>
+        <v>500.1333333332071</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>77.59999999999688</v>
+        <v>379.8833333333165</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>81.63333333332999</v>
+        <v>331.4666666666939</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>69.21666666666403</v>
+        <v>404.299999999961</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>63.06666666666437</v>
+        <v>586.1666666664622</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>87.59999999999631</v>
+        <v>486.6166666665528</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>77.38333333333023</v>
+        <v>437.3833333332642</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>61.81666666666444</v>
+        <v>503.5666666665373</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>72.44999999999717</v>
+        <v>422.8666666666107</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>81.16666666666335</v>
+        <v>372.6999999999897</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>67.58333333333078</v>
+        <v>353.0833333333409</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>75.76666666666365</v>
+        <v>441.4166666665939</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>66.7999999999975</v>
+        <v>465.1999999999056</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>79.94999999999675</v>
+        <v>479.766666666559</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>63.0999999999977</v>
+        <v>433.949999999934</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>66.36666666666419</v>
+        <v>493.7999999998796</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>84.8333333333298</v>
+        <v>457.8666666665789</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>58.04999999999799</v>
+        <v>513.0333333331954</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>78.06666666666352</v>
+        <v>380.9666666666488</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>67.64999999999745</v>
+        <v>564.4999999998153</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>71.54999999999723</v>
+        <v>393.7833333333039</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>70.06666666666398</v>
+        <v>367.3833333333279</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>57.31666666666469</v>
+        <v>474.9333333332301</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>70.94999999999726</v>
+        <v>446.4833333332559</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>73.56666666666378</v>
+        <v>365.7333333333294</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>84.18333333332984</v>
+        <v>482.4166666665566</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>70.28333333333063</v>
+        <v>516.1833333331925</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>77.48333333333022</v>
+        <v>494.016666666546</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>80.96666666666336</v>
+        <v>508.6666666665327</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>69.94999999999732</v>
+        <v>333.8000000000251</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>65.54999999999757</v>
+        <v>502.9833333332045</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>79.66666666666343</v>
+        <v>404.5999999999607</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>69.18333333333069</v>
+        <v>540.1999999998374</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>77.91666666666353</v>
+        <v>479.6833333332257</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>77.44999999999689</v>
+        <v>402.2666666666295</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>77.21666666666357</v>
+        <v>557.3166666664885</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>62.66666666666439</v>
+        <v>426.1833333332744</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>65.4833333333309</v>
+        <v>448.4999999999208</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>78.53333333333016</v>
+        <v>340.116666666686</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>71.33333333333057</v>
+        <v>461.1833333332426</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>73.1166666666638</v>
+        <v>542.0999999998356</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>63.66666666666433</v>
+        <v>396.9499999999676</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>64.19999999999764</v>
+        <v>531.8999999998449</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>65.41666666666424</v>
+        <v>441.2333333332607</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>69.78333333333066</v>
+        <v>389.3666666666412</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>69.69999999999733</v>
+        <v>457.0333333332463</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>86.13333333332973</v>
+        <v>384.4666666666457</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>86.0999999999964</v>
+        <v>489.8499999998832</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>66.14999999999753</v>
+        <v>523.333333333186</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>76.26666666666362</v>
+        <v>444.6333333332576</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>73.08333333333047</v>
+        <v>347.7333333333457</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>63.53333333333101</v>
+        <v>507.7999999998668</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>67.21666666666414</v>
+        <v>413.4666666666193</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>72.54999999999717</v>
+        <v>446.1666666665895</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>80.53333333333005</v>
+        <v>356.6333333333376</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>69.23333333333069</v>
+        <v>466.8833333332374</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>89.51666666666287</v>
+        <v>472.833333333232</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>69.1333333333307</v>
+        <v>452.216666666584</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>69.28333333333069</v>
+        <v>404.9333333332937</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>73.86666666666376</v>
+        <v>417.8833333332819</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>73.08333333333047</v>
+        <v>415.1833333332844</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>65.79999999999755</v>
+        <v>390.9666666666398</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>55.78333333333145</v>
+        <v>539.5833333331713</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>69.94999999999732</v>
+        <v>530.749999999846</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>66.53333333333084</v>
+        <v>462.8999999999077</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>59.99999999999788</v>
+        <v>411.1666666666214</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>60.19999999999786</v>
+        <v>393.7999999999705</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>77.86666666666353</v>
+        <v>395.9499999999686</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>63.79999999999766</v>
+        <v>351.5333333333423</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>75.91666666666364</v>
+        <v>422.0999999999448</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>70.1999999999973</v>
+        <v>447.2833333332552</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>74.29999999999707</v>
+        <v>503.5166666665374</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>77.86666666666353</v>
+        <v>436.916666666598</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>60.54999999999784</v>
+        <v>392.9999999999712</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>66.71666666666417</v>
+        <v>367.6666666666609</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>63.13333333333103</v>
+        <v>415.6999999999506</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>75.549999999997</v>
+        <v>446.6333333332558</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>89.56666666666287</v>
+        <v>490.766666666549</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>88.84999999999624</v>
+        <v>400.183333333298</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>73.51666666666378</v>
+        <v>441.2833333332607</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>69.31666666666402</v>
+        <v>399.0499999999657</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>74.03333333333042</v>
+        <v>371.8333333333238</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>84.46666666666316</v>
+        <v>435.5666666665992</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>70.8333333333306</v>
+        <v>429.9833333332709</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>67.84999999999744</v>
+        <v>428.7499999999387</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>66.71666666666417</v>
+        <v>424.8499999999423</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>63.59999999999767</v>
+        <v>549.1499999998292</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>87.03333333332968</v>
+        <v>544.8666666664998</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>85.4666666666631</v>
+        <v>376.5999999999862</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>64.51666666666429</v>
+        <v>433.5833333332677</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>66.08333333333087</v>
+        <v>461.3833333332424</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>67.89999999999743</v>
+        <v>356.7166666666709</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>72.5833333333305</v>
+        <v>403.9333333332946</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>64.18333333333098</v>
+        <v>421.9666666666116</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>63.78333333333099</v>
+        <v>382.8666666666471</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>62.49999999999773</v>
+        <v>425.1833333332753</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>59.56666666666457</v>
+        <v>444.8333333332574</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>75.31666666666368</v>
+        <v>428.5666666666056</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>95.68333333332919</v>
+        <v>461.0833333332426</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>65.61666666666423</v>
+        <v>408.4666666666238</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>78.4166666666635</v>
+        <v>408.649999999957</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>58.84999999999794</v>
+        <v>382.8833333333138</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>79.31666666666345</v>
+        <v>467.2999999999037</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>72.08333333333053</v>
+        <v>387.03333333331</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>88.56666666666293</v>
+        <v>535.149999999842</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>71.86666666666387</v>
+        <v>451.3499999999182</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>78.43333333333017</v>
+        <v>459.1166666665778</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>73.54999999999711</v>
+        <v>489.1999999998837</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>64.93333333333094</v>
+        <v>416.9499999999495</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>67.9666666666641</v>
+        <v>456.0333333332472</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>67.3833333333308</v>
+        <v>431.7999999999359</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>51.68333333333168</v>
+        <v>356.7000000000043</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>60.54999999999784</v>
+        <v>457.1833333332462</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>71.91666666666387</v>
+        <v>368.0166666666606</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>64.19999999999764</v>
+        <v>339.1333333333536</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>85.13333333332979</v>
+        <v>460.3999999999099</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>92.71666666666269</v>
+        <v>472.3666666665657</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>53.89999999999822</v>
+        <v>414.4999999999517</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>74.98333333333036</v>
+        <v>421.4999999999453</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>79.48333333333011</v>
+        <v>469.7333333332348</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>66.36666666666419</v>
+        <v>475.7999999998959</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>82.84999999999658</v>
+        <v>439.2666666665958</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>63.06666666666437</v>
+        <v>429.0166666666051</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>73.01666666666381</v>
+        <v>522.1833333331871</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>78.66666666666349</v>
+        <v>445.3999999999236</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>63.84999999999766</v>
+        <v>454.6166666665819</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>72.39999999999718</v>
+        <v>431.2666666666031</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>81.83333333332997</v>
+        <v>374.2333333333216</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>81.28333333333001</v>
+        <v>391.5999999999725</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>71.54999999999723</v>
+        <v>474.6833333332303</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>91.38333333332943</v>
+        <v>379.2666666666504</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>60.2333333333312</v>
+        <v>471.2166666665668</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>66.01666666666421</v>
+        <v>402.5166666666292</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>98.46666666666236</v>
+        <v>406.8666666666253</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>78.58333333333016</v>
+        <v>447.0166666665888</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>68.14999999999742</v>
+        <v>471.1333333332335</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>68.23333333333075</v>
+        <v>364.7833333333302</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>79.86666666666342</v>
+        <v>447.483333333255</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>76.7666666666636</v>
+        <v>541.3999999998363</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>63.11666666666436</v>
+        <v>516.5499999998589</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>67.74999999999744</v>
+        <v>441.0833333332608</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>75.26666666666368</v>
+        <v>378.9666666666507</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>72.96666666666381</v>
+        <v>463.4333333332405</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>63.66666666666433</v>
+        <v>516.6166666665255</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>80.11666666666341</v>
+        <v>400.5999999999643</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>72.5833333333305</v>
+        <v>525.6999999998505</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>75.74999999999699</v>
+        <v>414.9333333332846</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>62.23333333333108</v>
+        <v>524.3333333331851</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>68.84999999999738</v>
+        <v>465.3499999999054</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>56.64999999999807</v>
+        <v>376.1833333333199</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>77.78333333333021</v>
+        <v>370.1833333333253</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>70.56666666666395</v>
+        <v>413.2166666666195</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>64.14999999999765</v>
+        <v>477.6499999998942</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>90.93333333332946</v>
+        <v>503.2999999998709</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>71.56666666666389</v>
+        <v>497.8166666665426</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>71.11666666666392</v>
+        <v>378.7499999999842</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>78.01666666666353</v>
+        <v>441.0999999999275</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>67.16666666666414</v>
+        <v>438.8833333332628</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>68.51666666666407</v>
+        <v>425.2999999999419</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>61.84999999999777</v>
+        <v>397.4333333333005</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>72.23333333333052</v>
+        <v>538.8833333331719</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>82.11666666666329</v>
+        <v>372.1833333333235</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>58.93333333333127</v>
+        <v>427.8333333332729</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>63.79999999999766</v>
+        <v>392.8333333333047</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>65.59999999999756</v>
+        <v>355.8000000000051</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>71.59999999999722</v>
+        <v>431.4499999999363</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>89.83333333332952</v>
+        <v>511.9833333331964</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>66.41666666666418</v>
+        <v>443.8666666665916</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>69.716666666664</v>
+        <v>395.1333333333026</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>79.13333333333013</v>
+        <v>460.0999999999102</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>66.63333333333084</v>
+        <v>425.4333333332751</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>64.3666666666643</v>
+        <v>406.4333333332924</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>84.91666666666313</v>
+        <v>491.6499999998815</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>61.26666666666447</v>
+        <v>383.2833333333134</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>64.63333333333095</v>
+        <v>501.4999999998726</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>79.48333333333011</v>
+        <v>418.2999999999482</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>70.96666666666393</v>
+        <v>353.3333333333406</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>73.6999999999971</v>
+        <v>545.7499999998323</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>56.79999999999806</v>
+        <v>412.1833333332871</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>74.9666666666637</v>
+        <v>386.9999999999767</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>70.43333333333062</v>
+        <v>409.8833333332892</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>63.16666666666436</v>
+        <v>436.5833333332649</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>66.0666666666642</v>
+        <v>389.999999999974</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>67.68333333333078</v>
+        <v>449.0666666665869</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>66.01666666666421</v>
+        <v>420.7833333332793</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>67.19999999999747</v>
+        <v>393.0999999999711</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>65.91666666666421</v>
+        <v>479.0666666665596</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>66.41666666666418</v>
+        <v>413.383333333286</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>57.51666666666468</v>
+        <v>495.2666666665449</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>64.8999999999976</v>
+        <v>341.8666666666844</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>69.44999999999735</v>
+        <v>387.7833333333093</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>63.11666666666436</v>
+        <v>411.2833333332879</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>78.59999999999683</v>
+        <v>384.8166666666453</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>68.19999999999742</v>
+        <v>393.4499999999708</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>57.18333333333137</v>
+        <v>547.3333333331642</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>70.79999999999727</v>
+        <v>355.2500000000056</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>63.19999999999769</v>
+        <v>482.34999999989</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>92.81666666666268</v>
+        <v>452.4833333332505</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>64.93333333333094</v>
+        <v>539.0833333331717</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>99.41666666666231</v>
+        <v>433.949999999934</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>65.13333333333092</v>
+        <v>435.6333333332658</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>73.31666666666379</v>
+        <v>379.8166666666499</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>66.59999999999751</v>
+        <v>443.083333333259</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>67.51666666666412</v>
+        <v>500.5166666665401</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>70.53333333333062</v>
+        <v>402.5499999999626</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>64.69999999999762</v>
+        <v>368.3166666666604</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>59.83333333333122</v>
+        <v>462.2999999999082</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>75.51666666666367</v>
+        <v>416.0833333332836</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>68.24999999999741</v>
+        <v>440.8666666665944</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>83.21666666666323</v>
+        <v>422.183333333278</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>89.91666666666285</v>
+        <v>533.4833333331768</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>72.84999999999715</v>
+        <v>551.6333333331603</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>73.78333333333043</v>
+        <v>421.6999999999451</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>66.1166666666642</v>
+        <v>363.4666666666648</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>72.16666666666386</v>
+        <v>409.6333333332894</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>103.2833333333288</v>
+        <v>402.7499999999624</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>86.6333333333297</v>
+        <v>506.2333333332016</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>77.01666666666358</v>
+        <v>498.3666666665421</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>70.2499999999973</v>
+        <v>359.6666666666682</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>69.79999999999733</v>
+        <v>383.8666666666462</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>67.64999999999745</v>
+        <v>445.9333333332564</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>74.08333333333042</v>
+        <v>377.6166666666519</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>65.94999999999754</v>
+        <v>550.2333333331616</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>66.7499999999975</v>
+        <v>452.1333333332508</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>77.46666666666356</v>
+        <v>444.3333333332579</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>62.18333333333108</v>
+        <v>385.4166666666448</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>78.68333333333015</v>
+        <v>392.483333333305</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>72.18333333333052</v>
+        <v>559.1333333331535</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>85.21666666666312</v>
+        <v>386.5166666666438</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>65.23333333333092</v>
+        <v>392.483333333305</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>78.26666666666351</v>
+        <v>514.5666666665273</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>66.71666666666417</v>
+        <v>354.03333333334</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>76.78333333333026</v>
+        <v>333.0166666666925</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>87.316666666663</v>
+        <v>393.6499999999706</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>74.93333333333037</v>
+        <v>384.7666666666454</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>72.89999999999715</v>
+        <v>378.5499999999844</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>65.86666666666422</v>
+        <v>487.5833333332185</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>91.74999999999608</v>
+        <v>420.4499999999463</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>74.04999999999708</v>
+        <v>348.6000000000116</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>71.53333333333056</v>
+        <v>494.0999999998793</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>72.38333333333051</v>
+        <v>496.4833333332105</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>79.74999999999676</v>
+        <v>471.5999999998998</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>62.73333333333105</v>
+        <v>384.833333333312</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>73.71666666666377</v>
+        <v>428.5999999999389</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>80.01666666666341</v>
+        <v>530.7333333331793</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>93.56666666666264</v>
+        <v>537.0833333331735</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>76.41666666666362</v>
+        <v>447.3666666665885</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>78.09999999999685</v>
+        <v>457.0833333332463</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>70.16666666666397</v>
+        <v>372.1166666666569</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>72.24999999999719</v>
+        <v>373.499999999989</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>80.23333333333007</v>
+        <v>513.3499999998618</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>84.89999999999647</v>
+        <v>443.2833333332588</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>65.56666666666423</v>
+        <v>457.383333333246</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>71.39999999999723</v>
+        <v>507.1999999998674</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>81.16666666666335</v>
+        <v>396.6166666666346</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>60.34999999999786</v>
+        <v>527.6166666665155</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>78.39999999999684</v>
+        <v>402.0666666666297</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>61.43333333333113</v>
+        <v>490.3166666665494</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>70.11666666666397</v>
+        <v>431.699999999936</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>61.48333333333112</v>
+        <v>366.5833333333286</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>57.61666666666468</v>
+        <v>458.3666666665785</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>69.96666666666398</v>
+        <v>401.2499999999637</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>79.01666666666347</v>
+        <v>455.7833333332475</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>76.94999999999692</v>
+        <v>357.66666666667</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>66.29999999999752</v>
+        <v>424.1333333332763</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>74.83333333333037</v>
+        <v>415.0999999999511</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>65.91666666666421</v>
+        <v>474.1666666665641</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>85.93333333332974</v>
+        <v>411.1333333332881</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>74.73333333333038</v>
+        <v>489.0999999998838</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>69.54999999999734</v>
+        <v>520.3833333331887</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>59.63333333333123</v>
+        <v>367.9833333333273</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>76.0333333333303</v>
+        <v>404.1499999999611</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>77.69999999999688</v>
+        <v>341.0666666666851</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>71.19999999999725</v>
+        <v>394.1833333333035</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>56.36666666666475</v>
+        <v>397.1666666666341</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>75.88333333333031</v>
+        <v>439.9999999999285</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>71.38333333333057</v>
+        <v>386.6666666666437</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>65.18333333333092</v>
+        <v>428.0999999999393</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>83.56666666666321</v>
+        <v>506.8999999998676</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>71.58333333333056</v>
+        <v>475.7833333332293</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>75.56666666666366</v>
+        <v>419.2166666666141</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>66.73333333333083</v>
+        <v>377.2333333333189</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>60.79999999999783</v>
+        <v>357.8666666666699</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>67.8166666666641</v>
+        <v>422.3499999999445</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>52.56666666666496</v>
+        <v>380.1666666666496</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>65.46666666666424</v>
+        <v>452.7166666665836</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>70.74999999999727</v>
+        <v>494.733333333212</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>69.28333333333069</v>
+        <v>479.2166666665595</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>81.81666666666331</v>
+        <v>384.3999999999791</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>66.51666666666418</v>
+        <v>368.1666666666605</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>61.31666666666447</v>
+        <v>510.516666666531</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>76.53333333333028</v>
+        <v>432.1833333332689</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>84.84999999999647</v>
+        <v>412.0999999999539</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>78.91666666666347</v>
+        <v>418.4666666666147</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>80.78333333333003</v>
+        <v>469.7166666665681</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>68.93333333333071</v>
+        <v>458.1666666665786</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>79.91666666666342</v>
+        <v>395.8499999999686</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>76.46666666666361</v>
+        <v>451.4833333332514</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>66.68333333333084</v>
+        <v>379.4333333333169</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>76.21666666666363</v>
+        <v>463.1833333332407</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>74.63333333333038</v>
+        <v>478.5333333332268</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>81.58333333332999</v>
+        <v>510.8333333331974</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>85.24999999999645</v>
+        <v>506.9833333332009</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>78.63333333333016</v>
+        <v>561.166666666485</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>57.88333333333133</v>
+        <v>426.7499999999405</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>71.96666666666387</v>
+        <v>360.1166666666678</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>72.71666666666383</v>
+        <v>437.9833333332637</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>63.74999999999766</v>
+        <v>403.4666666666284</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>78.74999999999682</v>
+        <v>421.0166666666124</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>61.8833333333311</v>
+        <v>450.7999999999187</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>65.49999999999757</v>
+        <v>389.7666666666408</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>62.98333333333104</v>
+        <v>470.4999999999008</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>75.53333333333033</v>
+        <v>466.4333333332378</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>87.66666666666298</v>
+        <v>469.1166666665687</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>73.71666666666377</v>
+        <v>337.7500000000215</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>74.69999999999705</v>
+        <v>430.7833333332702</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>76.09999999999697</v>
+        <v>480.6333333332249</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>85.66666666666309</v>
+        <v>388.2833333333089</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>75.31666666666368</v>
+        <v>344.3166666666822</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>71.76666666666388</v>
+        <v>481.0999999998911</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>87.53333333332965</v>
+        <v>440.4833333332614</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>84.68333333332981</v>
+        <v>423.7833333332766</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>74.4333333333304</v>
+        <v>405.2999999999601</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>77.96666666666353</v>
+        <v>496.3666666665439</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>67.99999999999743</v>
+        <v>368.3499999999937</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>66.2166666666642</v>
+        <v>500.5666666665401</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>83.88333333332986</v>
+        <v>371.4499999999908</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>67.14999999999748</v>
+        <v>388.3499999999755</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>77.14999999999691</v>
+        <v>444.7666666665908</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>72.0499999999972</v>
+        <v>495.883333333211</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>72.23333333333052</v>
+        <v>352.1333333333417</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>77.48333333333022</v>
+        <v>419.266666666614</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>94.3666666666626</v>
+        <v>528.2499999998482</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>86.99999999999635</v>
+        <v>408.5666666666237</v>
       </c>
     </row>
     <row r="453">
@@ -4051,7 +4051,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>63.56666666666434</v>
+        <v>419.2499999999474</v>
       </c>
     </row>
     <row r="454">
@@ -4059,7 +4059,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>59.43333333333124</v>
+        <v>539.4333333331714</v>
       </c>
     </row>
     <row r="455">
@@ -4067,7 +4067,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>69.53333333333067</v>
+        <v>463.4166666665739</v>
       </c>
     </row>
     <row r="456">
@@ -4075,7 +4075,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>71.4166666666639</v>
+        <v>489.5666666665501</v>
       </c>
     </row>
     <row r="457">
@@ -4083,7 +4083,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>78.43333333333017</v>
+        <v>397.0999999999675</v>
       </c>
     </row>
     <row r="458">
@@ -4091,7 +4091,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>67.39999999999746</v>
+        <v>341.8333333333511</v>
       </c>
     </row>
     <row r="459">
@@ -4099,7 +4099,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>57.56666666666468</v>
+        <v>420.4833333332796</v>
       </c>
     </row>
     <row r="460">
@@ -4107,7 +4107,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>65.39999999999758</v>
+        <v>437.2833333332643</v>
       </c>
     </row>
     <row r="461">
@@ -4115,7 +4115,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>74.58333333333039</v>
+        <v>560.4999999998189</v>
       </c>
     </row>
     <row r="462">
@@ -4123,7 +4123,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>68.18333333333075</v>
+        <v>435.6999999999324</v>
       </c>
     </row>
     <row r="463">
@@ -4131,7 +4131,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>76.34999999999695</v>
+        <v>471.5666666665664</v>
       </c>
     </row>
     <row r="464">
@@ -4139,7 +4139,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>78.98333333333014</v>
+        <v>543.8833333331673</v>
       </c>
     </row>
     <row r="465">
@@ -4147,7 +4147,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>84.54999999999649</v>
+        <v>406.3166666666258</v>
       </c>
     </row>
     <row r="466">
@@ -4155,7 +4155,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>86.0999999999964</v>
+        <v>469.4666666665684</v>
       </c>
     </row>
     <row r="467">
@@ -4163,7 +4163,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>61.36666666666446</v>
+        <v>420.4999999999462</v>
       </c>
     </row>
     <row r="468">
@@ -4171,7 +4171,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>63.96666666666432</v>
+        <v>462.3166666665749</v>
       </c>
     </row>
     <row r="469">
@@ -4179,7 +4179,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>62.38333333333107</v>
+        <v>439.5666666665956</v>
       </c>
     </row>
     <row r="470">
@@ -4187,7 +4187,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>78.14999999999685</v>
+        <v>502.6333333332049</v>
       </c>
     </row>
     <row r="471">
@@ -4195,7 +4195,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>61.3999999999978</v>
+        <v>515.9999999998594</v>
       </c>
     </row>
     <row r="472">
@@ -4203,7 +4203,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>67.2833333333308</v>
+        <v>358.1333333333363</v>
       </c>
     </row>
     <row r="473">
@@ -4211,7 +4211,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>61.06666666666448</v>
+        <v>452.9166666665834</v>
       </c>
     </row>
     <row r="474">
@@ -4219,7 +4219,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>62.59999999999773</v>
+        <v>469.533333333235</v>
       </c>
     </row>
     <row r="475">
@@ -4227,7 +4227,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>68.28333333333075</v>
+        <v>453.5499999999162</v>
       </c>
     </row>
     <row r="476">
@@ -4235,7 +4235,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>88.88333333332957</v>
+        <v>414.5833333332849</v>
       </c>
     </row>
     <row r="477">
@@ -4243,7 +4243,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>63.53333333333101</v>
+        <v>394.4833333333032</v>
       </c>
     </row>
     <row r="478">
@@ -4251,7 +4251,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>83.14999999999657</v>
+        <v>414.3666666666185</v>
       </c>
     </row>
     <row r="479">
@@ -4259,7 +4259,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>71.96666666666387</v>
+        <v>417.6499999999488</v>
       </c>
     </row>
     <row r="480">
@@ -4267,7 +4267,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>84.61666666666315</v>
+        <v>408.8833333332901</v>
       </c>
     </row>
     <row r="481">
@@ -4275,7 +4275,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>70.18333333333064</v>
+        <v>424.1166666666096</v>
       </c>
     </row>
     <row r="482">
@@ -4283,7 +4283,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>66.91666666666416</v>
+        <v>434.3499999999336</v>
       </c>
     </row>
     <row r="483">
@@ -4291,7 +4291,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>62.89999999999771</v>
+        <v>403.4499999999617</v>
       </c>
     </row>
     <row r="484">
@@ -4299,7 +4299,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>71.13333333333058</v>
+        <v>496.0999999998775</v>
       </c>
     </row>
     <row r="485">
@@ -4307,7 +4307,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>79.51666666666344</v>
+        <v>420.8499999999459</v>
       </c>
     </row>
     <row r="486">
@@ -4315,7 +4315,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>80.34999999999673</v>
+        <v>481.3666666665575</v>
       </c>
     </row>
     <row r="487">
@@ -4323,7 +4323,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>64.16666666666431</v>
+        <v>462.1333333332417</v>
       </c>
     </row>
     <row r="488">
@@ -4331,7 +4331,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>71.29999999999724</v>
+        <v>417.4833333332823</v>
       </c>
     </row>
     <row r="489">
@@ -4339,7 +4339,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>80.08333333333007</v>
+        <v>469.8833333332346</v>
       </c>
     </row>
     <row r="490">
@@ -4347,7 +4347,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>69.11666666666403</v>
+        <v>362.0999999999993</v>
       </c>
     </row>
     <row r="491">
@@ -4355,7 +4355,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>77.28333333333023</v>
+        <v>400.9833333332973</v>
       </c>
     </row>
     <row r="492">
@@ -4363,7 +4363,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>74.3333333333304</v>
+        <v>458.1666666665786</v>
       </c>
     </row>
     <row r="493">
@@ -4371,7 +4371,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>61.76666666666444</v>
+        <v>539.0833333331717</v>
       </c>
     </row>
     <row r="494">
@@ -4379,7 +4379,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>59.31666666666458</v>
+        <v>507.3833333332005</v>
       </c>
     </row>
     <row r="495">
@@ -4387,7 +4387,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>57.24999999999803</v>
+        <v>409.9999999999558</v>
       </c>
     </row>
     <row r="496">
@@ -4395,7 +4395,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>76.54999999999694</v>
+        <v>419.3999999999472</v>
       </c>
     </row>
     <row r="497">
@@ -4403,7 +4403,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>88.76666666666291</v>
+        <v>446.1333333332562</v>
       </c>
     </row>
     <row r="498">
@@ -4411,7 +4411,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>78.48333333333017</v>
+        <v>503.0666666665378</v>
       </c>
     </row>
     <row r="499">
@@ -4419,7 +4419,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>63.93333333333099</v>
+        <v>347.483333333346</v>
       </c>
     </row>
     <row r="500">
@@ -4427,7 +4427,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>74.79999999999704</v>
+        <v>521.7666666665208</v>
       </c>
     </row>
     <row r="501">
@@ -4435,7 +4435,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>62.63333333333106</v>
+        <v>559.8333333331528</v>
       </c>
     </row>
     <row r="502">
@@ -4443,7 +4443,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>66.86666666666416</v>
+        <v>450.7166666665854</v>
       </c>
     </row>
     <row r="503">
@@ -4451,7 +4451,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>65.73333333333089</v>
+        <v>484.499999999888</v>
       </c>
     </row>
     <row r="504">
@@ -4459,7 +4459,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>62.88333333333104</v>
+        <v>456.2499999999137</v>
       </c>
     </row>
     <row r="505">
@@ -4467,7 +4467,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>69.54999999999734</v>
+        <v>397.0499999999676</v>
       </c>
     </row>
     <row r="506">
@@ -4475,7 +4475,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>66.83333333333083</v>
+        <v>437.0999999999311</v>
       </c>
     </row>
     <row r="507">
@@ -4483,7 +4483,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>88.36666666666294</v>
+        <v>418.3666666666148</v>
       </c>
     </row>
     <row r="508">
@@ -4491,7 +4491,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>83.7666666666632</v>
+        <v>502.1666666665386</v>
       </c>
     </row>
     <row r="509">
@@ -4499,7 +4499,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>70.03333333333065</v>
+        <v>372.2999999999901</v>
       </c>
     </row>
     <row r="510">
@@ -4507,7 +4507,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>67.66666666666411</v>
+        <v>373.783333333322</v>
       </c>
     </row>
     <row r="511">
@@ -4515,7 +4515,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>79.34999999999678</v>
+        <v>355.7833333333384</v>
       </c>
     </row>
     <row r="512">
@@ -4523,7 +4523,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>69.29999999999735</v>
+        <v>605.1833333331116</v>
       </c>
     </row>
     <row r="513">
@@ -4531,7 +4531,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>91.74999999999608</v>
+        <v>360.9000000000004</v>
       </c>
     </row>
     <row r="514">
@@ -4539,7 +4539,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>70.74999999999727</v>
+        <v>504.9833333332027</v>
       </c>
     </row>
     <row r="515">
@@ -4547,7 +4547,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>71.81666666666388</v>
+        <v>497.749999999876</v>
       </c>
     </row>
     <row r="516">
@@ -4555,7 +4555,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>70.1999999999973</v>
+        <v>351.6833333333421</v>
       </c>
     </row>
     <row r="517">
@@ -4563,7 +4563,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>62.69999999999772</v>
+        <v>352.983333333341</v>
       </c>
     </row>
     <row r="518">
@@ -4571,7 +4571,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>67.8666666666641</v>
+        <v>517.0499999998584</v>
       </c>
     </row>
     <row r="519">
@@ -4579,7 +4579,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>96.18333333332916</v>
+        <v>363.6666666666646</v>
       </c>
     </row>
     <row r="520">
@@ -4587,7 +4587,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>67.3833333333308</v>
+        <v>435.3499999999327</v>
       </c>
     </row>
     <row r="521">
@@ -4595,7 +4595,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>60.54999999999784</v>
+        <v>396.549999999968</v>
       </c>
     </row>
     <row r="522">
@@ -4603,7 +4603,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>70.26666666666397</v>
+        <v>427.2166666666068</v>
       </c>
     </row>
     <row r="523">
@@ -4611,7 +4611,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>70.58333333333061</v>
+        <v>366.1666666666623</v>
       </c>
     </row>
     <row r="524">
@@ -4619,7 +4619,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>88.71666666666292</v>
+        <v>413.0666666666197</v>
       </c>
     </row>
     <row r="525">
@@ -4627,7 +4627,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>61.2999999999978</v>
+        <v>423.1666666666105</v>
       </c>
     </row>
     <row r="526">
@@ -4635,7 +4635,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>80.38333333333006</v>
+        <v>398.5499999999662</v>
       </c>
     </row>
     <row r="527">
@@ -4643,7 +4643,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>77.94999999999686</v>
+        <v>428.4333333332723</v>
       </c>
     </row>
     <row r="528">
@@ -4651,7 +4651,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>81.76666666666331</v>
+        <v>468.4499999999026</v>
       </c>
     </row>
     <row r="529">
@@ -4659,7 +4659,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>61.9833333333311</v>
+        <v>350.783333333343</v>
       </c>
     </row>
     <row r="530">
@@ -4667,7 +4667,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>65.39999999999758</v>
+        <v>420.5833333332795</v>
       </c>
     </row>
     <row r="531">
@@ -4675,7 +4675,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>68.79999999999738</v>
+        <v>400.4833333332978</v>
       </c>
     </row>
     <row r="532">
@@ -4683,7 +4683,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>59.68333333333123</v>
+        <v>489.1666666665504</v>
       </c>
     </row>
     <row r="533">
@@ -4691,7 +4691,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>75.0166666666637</v>
+        <v>515.683333333193</v>
       </c>
     </row>
     <row r="534">
@@ -4699,7 +4699,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>70.61666666666395</v>
+        <v>499.4499999998744</v>
       </c>
     </row>
     <row r="535">
@@ -4707,7 +4707,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>60.78333333333116</v>
+        <v>462.3999999999081</v>
       </c>
     </row>
     <row r="536">
@@ -4715,7 +4715,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>70.23333333333063</v>
+        <v>466.9166666665707</v>
       </c>
     </row>
     <row r="537">
@@ -4723,7 +4723,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>72.16666666666386</v>
+        <v>335.4833333333569</v>
       </c>
     </row>
     <row r="538">
@@ -4731,7 +4731,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>67.26666666666414</v>
+        <v>374.5666666666547</v>
       </c>
     </row>
     <row r="539">
@@ -4739,7 +4739,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>61.08333333333115</v>
+        <v>589.4999999997925</v>
       </c>
     </row>
     <row r="540">
@@ -4747,7 +4747,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>65.16666666666426</v>
+        <v>517.2166666665249</v>
       </c>
     </row>
     <row r="541">
@@ -4755,7 +4755,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>84.09999999999651</v>
+        <v>415.5999999999507</v>
       </c>
     </row>
     <row r="542">
@@ -4763,7 +4763,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>68.29999999999741</v>
+        <v>450.3166666665858</v>
       </c>
     </row>
     <row r="543">
@@ -4771,7 +4771,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>65.51666666666424</v>
+        <v>429.9999999999376</v>
       </c>
     </row>
     <row r="544">
@@ -4779,7 +4779,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>81.01666666666335</v>
+        <v>451.0833333332517</v>
       </c>
     </row>
     <row r="545">
@@ -4787,7 +4787,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>91.91666666666273</v>
+        <v>446.9333333332555</v>
       </c>
     </row>
     <row r="546">
@@ -4795,7 +4795,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>67.06666666666415</v>
+        <v>409.8333333332893</v>
       </c>
     </row>
     <row r="547">
@@ -4803,7 +4803,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>70.23333333333063</v>
+        <v>513.2499999998619</v>
       </c>
     </row>
     <row r="548">
@@ -4811,7 +4811,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>62.54999999999773</v>
+        <v>453.7833333332493</v>
       </c>
     </row>
     <row r="549">
@@ -4819,7 +4819,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>78.36666666666351</v>
+        <v>431.0666666666033</v>
       </c>
     </row>
     <row r="550">
@@ -4827,7 +4827,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>67.04999999999748</v>
+        <v>379.0333333333173</v>
       </c>
     </row>
     <row r="551">
@@ -4835,7 +4835,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>101.2499999999955</v>
+        <v>418.5666666666147</v>
       </c>
     </row>
     <row r="552">
@@ -4843,7 +4843,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>61.53333333333112</v>
+        <v>489.6499999998833</v>
       </c>
     </row>
     <row r="553">
@@ -4851,7 +4851,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>78.98333333333014</v>
+        <v>597.4666666664519</v>
       </c>
     </row>
     <row r="554">
@@ -4859,7 +4859,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>59.46666666666457</v>
+        <v>524.049999999852</v>
       </c>
     </row>
     <row r="555">
@@ -4867,7 +4867,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>61.89999999999777</v>
+        <v>382.6999999999806</v>
       </c>
     </row>
     <row r="556">
@@ -4875,7 +4875,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>71.89999999999721</v>
+        <v>467.7666666665699</v>
       </c>
     </row>
     <row r="557">
@@ -4883,7 +4883,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>68.86666666666405</v>
+        <v>502.2333333332052</v>
       </c>
     </row>
     <row r="558">
@@ -4891,7 +4891,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>61.61666666666445</v>
+        <v>413.2666666666195</v>
       </c>
     </row>
     <row r="559">
@@ -4899,7 +4899,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>91.48333333332943</v>
+        <v>540.5833333331703</v>
       </c>
     </row>
     <row r="560">
@@ -4907,7 +4907,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>66.6999999999975</v>
+        <v>380.7499999999824</v>
       </c>
     </row>
     <row r="561">
@@ -4915,7 +4915,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>75.53333333333033</v>
+        <v>536.0499999998411</v>
       </c>
     </row>
     <row r="562">
@@ -4923,7 +4923,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>82.34999999999661</v>
+        <v>462.4666666665747</v>
       </c>
     </row>
     <row r="563">
@@ -4931,7 +4931,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>82.99999999999658</v>
+        <v>420.8499999999459</v>
       </c>
     </row>
     <row r="564">
@@ -4939,7 +4939,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>64.69999999999762</v>
+        <v>426.2666666666076</v>
       </c>
     </row>
     <row r="565">
@@ -4947,7 +4947,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>56.66666666666473</v>
+        <v>361.1333333333336</v>
       </c>
     </row>
     <row r="566">
@@ -4955,7 +4955,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>70.49999999999729</v>
+        <v>429.4833333332714</v>
       </c>
     </row>
     <row r="567">
@@ -4963,7 +4963,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>74.49999999999706</v>
+        <v>398.6666666666328</v>
       </c>
     </row>
     <row r="568">
@@ -4971,7 +4971,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>68.69999999999739</v>
+        <v>502.4499999998717</v>
       </c>
     </row>
     <row r="569">
@@ -4979,7 +4979,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>62.23333333333108</v>
+        <v>494.9499999998785</v>
       </c>
     </row>
     <row r="570">
@@ -4987,7 +4987,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>86.91666666666302</v>
+        <v>394.0499999999703</v>
       </c>
     </row>
     <row r="571">
@@ -4995,7 +4995,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>70.18333333333064</v>
+        <v>445.1333333332572</v>
       </c>
     </row>
     <row r="572">
@@ -5003,7 +5003,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>61.69999999999778</v>
+        <v>390.9833333333064</v>
       </c>
     </row>
     <row r="573">
@@ -5011,7 +5011,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>59.5499999999979</v>
+        <v>529.2833333331806</v>
       </c>
     </row>
     <row r="574">
@@ -5019,7 +5019,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>87.51666666666299</v>
+        <v>448.6833333332539</v>
       </c>
     </row>
     <row r="575">
@@ -5027,7 +5027,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>84.96666666666313</v>
+        <v>427.3666666666066</v>
       </c>
     </row>
     <row r="576">
@@ -5035,7 +5035,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>63.28333333333102</v>
+        <v>406.7333333332921</v>
       </c>
     </row>
     <row r="577">
@@ -5043,7 +5043,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>78.16666666666352</v>
+        <v>432.3166666666021</v>
       </c>
     </row>
     <row r="578">
@@ -5051,7 +5051,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>65.79999999999755</v>
+        <v>457.9166666665789</v>
       </c>
     </row>
     <row r="579">
@@ -5059,7 +5059,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>54.73333333333151</v>
+        <v>366.9999999999949</v>
       </c>
     </row>
     <row r="580">
@@ -5067,7 +5067,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>73.31666666666379</v>
+        <v>436.2999999999319</v>
       </c>
     </row>
     <row r="581">
@@ -5075,7 +5075,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>67.41666666666413</v>
+        <v>508.6833333331994</v>
       </c>
     </row>
     <row r="582">
@@ -5083,7 +5083,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>70.31666666666396</v>
+        <v>353.3500000000073</v>
       </c>
     </row>
     <row r="583">
@@ -5091,7 +5091,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>71.21666666666391</v>
+        <v>472.449999999899</v>
       </c>
     </row>
     <row r="584">
@@ -5099,7 +5099,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>71.4166666666639</v>
+        <v>371.3166666666576</v>
       </c>
     </row>
     <row r="585">
@@ -5107,7 +5107,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>92.74999999999602</v>
+        <v>412.7833333332866</v>
       </c>
     </row>
     <row r="586">
@@ -5115,7 +5115,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>63.36666666666435</v>
+        <v>417.8499999999486</v>
       </c>
     </row>
     <row r="587">
@@ -5123,7 +5123,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>73.7499999999971</v>
+        <v>365.5999999999962</v>
       </c>
     </row>
     <row r="588">
@@ -5131,7 +5131,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>75.06666666666369</v>
+        <v>352.8000000000078</v>
       </c>
     </row>
     <row r="589">
@@ -5139,7 +5139,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>60.56666666666451</v>
+        <v>466.949999999904</v>
       </c>
     </row>
     <row r="590">
@@ -5147,7 +5147,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>69.43333333333068</v>
+        <v>446.049999999923</v>
       </c>
     </row>
     <row r="591">
@@ -5155,7 +5155,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>71.14999999999725</v>
+        <v>349.1166666666778</v>
       </c>
     </row>
     <row r="592">
@@ -5163,7 +5163,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>66.56666666666418</v>
+        <v>383.5166666666465</v>
       </c>
     </row>
     <row r="593">
@@ -5171,7 +5171,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>67.01666666666415</v>
+        <v>411.1999999999547</v>
       </c>
     </row>
     <row r="594">
@@ -5179,7 +5179,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>76.81666666666359</v>
+        <v>424.1833333332762</v>
       </c>
     </row>
     <row r="595">
@@ -5187,7 +5187,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>67.3833333333308</v>
+        <v>363.549999999998</v>
       </c>
     </row>
     <row r="596">
@@ -5195,7 +5195,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>60.46666666666452</v>
+        <v>559.8833333331528</v>
       </c>
     </row>
     <row r="597">
@@ -5203,7 +5203,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>74.11666666666375</v>
+        <v>452.7833333332502</v>
       </c>
     </row>
     <row r="598">
@@ -5211,7 +5211,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>65.06666666666426</v>
+        <v>420.8499999999459</v>
       </c>
     </row>
     <row r="599">
@@ -5219,7 +5219,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>62.93333333333104</v>
+        <v>355.1666666666723</v>
       </c>
     </row>
     <row r="600">
@@ -5227,7 +5227,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>80.8499999999967</v>
+        <v>409.5166666666229</v>
       </c>
     </row>
     <row r="601">
@@ -5235,7 +5235,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>76.36666666666362</v>
+        <v>393.3333333333043</v>
       </c>
     </row>
     <row r="602">
@@ -5243,7 +5243,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>71.86666666666387</v>
+        <v>375.5666666666538</v>
       </c>
     </row>
     <row r="603">
@@ -5251,7 +5251,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>87.09999999999634</v>
+        <v>453.5166666665829</v>
       </c>
     </row>
     <row r="604">
@@ -5259,7 +5259,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>66.51666666666418</v>
+        <v>467.61666666657</v>
       </c>
     </row>
     <row r="605">
@@ -5267,7 +5267,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>73.2166666666638</v>
+        <v>375.6333333333204</v>
       </c>
     </row>
     <row r="606">
@@ -5275,7 +5275,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>76.83333333333026</v>
+        <v>477.4499999998944</v>
       </c>
     </row>
     <row r="607">
@@ -5283,7 +5283,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>71.21666666666391</v>
+        <v>385.5833333333113</v>
       </c>
     </row>
     <row r="608">
@@ -5291,7 +5291,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>82.69999999999659</v>
+        <v>525.916666666517</v>
       </c>
     </row>
     <row r="609">
@@ -5299,7 +5299,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>68.39999999999741</v>
+        <v>369.099999999993</v>
       </c>
     </row>
     <row r="610">
@@ -5307,7 +5307,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>66.99999999999748</v>
+        <v>472.0999999998993</v>
       </c>
     </row>
     <row r="611">
@@ -5315,7 +5315,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>70.89999999999726</v>
+        <v>433.6999999999342</v>
       </c>
     </row>
     <row r="612">
@@ -5323,7 +5323,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>86.53333333332971</v>
+        <v>493.0833333332135</v>
       </c>
     </row>
     <row r="613">
@@ -5331,7 +5331,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>71.14999999999725</v>
+        <v>433.233333333268</v>
       </c>
     </row>
     <row r="614">
@@ -5339,7 +5339,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>86.46666666666304</v>
+        <v>425.2499999999419</v>
       </c>
     </row>
     <row r="615">
@@ -5347,7 +5347,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>91.9333333333294</v>
+        <v>462.7166666665745</v>
       </c>
     </row>
     <row r="616">
@@ -5355,7 +5355,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>71.04999999999725</v>
+        <v>409.3166666666231</v>
       </c>
     </row>
     <row r="617">
@@ -5363,7 +5363,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>66.18333333333086</v>
+        <v>364.9499999999967</v>
       </c>
     </row>
     <row r="618">
@@ -5371,7 +5371,7 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>75.29999999999701</v>
+        <v>447.0166666665888</v>
       </c>
     </row>
     <row r="619">
@@ -5379,7 +5379,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>88.08333333332962</v>
+        <v>424.6833333332758</v>
       </c>
     </row>
     <row r="620">
@@ -5387,7 +5387,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>71.34999999999724</v>
+        <v>541.5666666665028</v>
       </c>
     </row>
     <row r="621">
@@ -5395,7 +5395,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>60.91666666666449</v>
+        <v>550.3166666664948</v>
       </c>
     </row>
     <row r="622">
@@ -5403,7 +5403,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>58.4833333333313</v>
+        <v>513.2999999998618</v>
       </c>
     </row>
     <row r="623">
@@ -5411,7 +5411,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>63.43333333333101</v>
+        <v>358.5666666666692</v>
       </c>
     </row>
     <row r="624">
@@ -5419,7 +5419,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>71.18333333333058</v>
+        <v>330.0000000000285</v>
       </c>
     </row>
     <row r="625">
@@ -5427,7 +5427,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>70.66666666666394</v>
+        <v>373.2333333333225</v>
       </c>
     </row>
     <row r="626">
@@ -5435,7 +5435,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>63.54999999999767</v>
+        <v>420.8166666666126</v>
       </c>
     </row>
     <row r="627">
@@ -5443,7 +5443,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>72.06666666666386</v>
+        <v>473.3833333332315</v>
       </c>
     </row>
     <row r="628">
@@ -5451,7 +5451,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>83.41666666666322</v>
+        <v>435.5166666665992</v>
       </c>
     </row>
     <row r="629">
@@ -5459,7 +5459,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>65.59999999999756</v>
+        <v>362.883333333332</v>
       </c>
     </row>
     <row r="630">
@@ -5467,7 +5467,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>70.39999999999729</v>
+        <v>480.3833333332251</v>
       </c>
     </row>
     <row r="631">
@@ -5475,7 +5475,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>87.14999999999634</v>
+        <v>529.2999999998473</v>
       </c>
     </row>
     <row r="632">
@@ -5483,7 +5483,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>83.7166666666632</v>
+        <v>426.4166666666075</v>
       </c>
     </row>
     <row r="633">
@@ -5491,7 +5491,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>75.449999999997</v>
+        <v>479.5999999998925</v>
       </c>
     </row>
     <row r="634">
@@ -5499,7 +5499,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>79.33333333333012</v>
+        <v>381.583333333315</v>
       </c>
     </row>
     <row r="635">
@@ -5507,7 +5507,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>65.28333333333092</v>
+        <v>484.1499999998883</v>
       </c>
     </row>
     <row r="636">
@@ -5515,7 +5515,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>67.39999999999746</v>
+        <v>439.399999999929</v>
       </c>
     </row>
     <row r="637">
@@ -5523,7 +5523,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>79.11666666666346</v>
+        <v>520.9499999998549</v>
       </c>
     </row>
     <row r="638">
@@ -5531,7 +5531,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>68.4499999999974</v>
+        <v>457.7333333332457</v>
       </c>
     </row>
     <row r="639">
@@ -5539,7 +5539,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>66.49999999999751</v>
+        <v>451.933333333251</v>
       </c>
     </row>
     <row r="640">
@@ -5547,7 +5547,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>61.8833333333311</v>
+        <v>400.6833333332976</v>
       </c>
     </row>
     <row r="641">
@@ -5555,7 +5555,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>60.11666666666454</v>
+        <v>387.2666666666431</v>
       </c>
     </row>
     <row r="642">
@@ -5563,7 +5563,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>79.69999999999676</v>
+        <v>420.4333333332796</v>
       </c>
     </row>
     <row r="643">
@@ -5571,7 +5571,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>83.46666666666322</v>
+        <v>381.0666666666488</v>
       </c>
     </row>
     <row r="644">
@@ -5579,7 +5579,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>71.59999999999722</v>
+        <v>508.3499999998663</v>
       </c>
     </row>
     <row r="645">
@@ -5587,7 +5587,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>62.59999999999773</v>
+        <v>464.1833333332398</v>
       </c>
     </row>
     <row r="646">
@@ -5595,7 +5595,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>59.16666666666459</v>
+        <v>502.1166666665387</v>
       </c>
     </row>
     <row r="647">
@@ -5603,7 +5603,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>87.73333333332964</v>
+        <v>402.2333333332962</v>
       </c>
     </row>
     <row r="648">
@@ -5611,7 +5611,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>89.04999999999623</v>
+        <v>476.1833333332289</v>
       </c>
     </row>
     <row r="649">
@@ -5619,7 +5619,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>87.04999999999634</v>
+        <v>432.8333333332683</v>
       </c>
     </row>
     <row r="650">
@@ -5627,7 +5627,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>65.69999999999756</v>
+        <v>509.6499999998651</v>
       </c>
     </row>
     <row r="651">
@@ -5635,7 +5635,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>61.13333333333114</v>
+        <v>347.6333333333458</v>
       </c>
     </row>
     <row r="652">
@@ -5643,7 +5643,7 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>62.24999999999775</v>
+        <v>434.6166666666001</v>
       </c>
     </row>
     <row r="653">
@@ -5651,7 +5651,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>71.31666666666391</v>
+        <v>462.499999999908</v>
       </c>
     </row>
     <row r="654">
@@ -5659,7 +5659,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>58.94999999999794</v>
+        <v>552.7333333331593</v>
       </c>
     </row>
     <row r="655">
@@ -5667,7 +5667,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>67.69999999999744</v>
+        <v>418.6333333332813</v>
       </c>
     </row>
     <row r="656">
@@ -5675,7 +5675,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>71.93333333333054</v>
+        <v>539.8499999998377</v>
       </c>
     </row>
     <row r="657">
@@ -5683,7 +5683,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>58.64999999999795</v>
+        <v>445.7333333332566</v>
       </c>
     </row>
     <row r="658">
@@ -5691,7 +5691,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>81.44999999999666</v>
+        <v>429.1999999999383</v>
       </c>
     </row>
     <row r="659">
@@ -5699,7 +5699,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>73.24999999999713</v>
+        <v>394.5166666666365</v>
       </c>
     </row>
     <row r="660">
@@ -5707,7 +5707,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>64.78333333333094</v>
+        <v>352.4500000000081</v>
       </c>
     </row>
     <row r="661">
@@ -5715,7 +5715,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>69.04999999999737</v>
+        <v>466.4666666665711</v>
       </c>
     </row>
     <row r="662">
@@ -5723,7 +5723,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>70.31666666666396</v>
+        <v>495.6666666665445</v>
       </c>
     </row>
     <row r="663">
@@ -5731,7 +5731,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>86.56666666666304</v>
+        <v>387.0166666666433</v>
       </c>
     </row>
     <row r="664">
@@ -5739,7 +5739,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>91.38333333332943</v>
+        <v>443.2833333332588</v>
       </c>
     </row>
     <row r="665">
@@ -5747,7 +5747,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>77.2999999999969</v>
+        <v>450.0999999999193</v>
       </c>
     </row>
     <row r="666">
@@ -5755,7 +5755,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>74.01666666666375</v>
+        <v>459.3999999999108</v>
       </c>
     </row>
     <row r="667">
@@ -5763,7 +5763,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>68.93333333333071</v>
+        <v>355.5500000000053</v>
       </c>
     </row>
     <row r="668">
@@ -5771,7 +5771,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>76.39999999999695</v>
+        <v>384.7333333333121</v>
       </c>
     </row>
     <row r="669">
@@ -5779,7 +5779,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>65.29999999999758</v>
+        <v>432.5666666666019</v>
       </c>
     </row>
     <row r="670">
@@ -5787,7 +5787,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>72.18333333333052</v>
+        <v>442.3499999999264</v>
       </c>
     </row>
     <row r="671">
@@ -5795,7 +5795,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>59.79999999999789</v>
+        <v>561.5166666664846</v>
       </c>
     </row>
     <row r="672">
@@ -5803,7 +5803,7 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>69.04999999999737</v>
+        <v>466.7833333332375</v>
       </c>
     </row>
     <row r="673">
@@ -5811,7 +5811,7 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>71.64999999999722</v>
+        <v>442.6833333332594</v>
       </c>
     </row>
     <row r="674">
@@ -5819,7 +5819,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>73.09999999999714</v>
+        <v>352.6166666666746</v>
       </c>
     </row>
     <row r="675">
@@ -5827,7 +5827,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>65.5333333333309</v>
+        <v>397.9999999999667</v>
       </c>
     </row>
     <row r="676">
@@ -5835,7 +5835,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>60.24999999999786</v>
+        <v>471.6999999998997</v>
       </c>
     </row>
     <row r="677">
@@ -5843,7 +5843,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>82.18333333332995</v>
+        <v>408.9499999999567</v>
       </c>
     </row>
     <row r="678">
@@ -5851,7 +5851,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>81.23333333333001</v>
+        <v>413.0666666666197</v>
       </c>
     </row>
     <row r="679">
@@ -5859,7 +5859,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>66.91666666666416</v>
+        <v>426.9833333332737</v>
       </c>
     </row>
     <row r="680">
@@ -5867,7 +5867,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>74.8666666666637</v>
+        <v>527.449999999849</v>
       </c>
     </row>
     <row r="681">
@@ -5875,7 +5875,7 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>76.0333333333303</v>
+        <v>346.1833333333472</v>
       </c>
     </row>
     <row r="682">
@@ -5883,7 +5883,7 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>68.79999999999738</v>
+        <v>472.016666666566</v>
       </c>
     </row>
     <row r="683">
@@ -5891,7 +5891,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>67.16666666666414</v>
+        <v>387.1666666666432</v>
       </c>
     </row>
     <row r="684">
@@ -5899,7 +5899,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>82.43333333332994</v>
+        <v>356.283333333338</v>
       </c>
     </row>
     <row r="685">
@@ -5907,7 +5907,7 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>63.633333333331</v>
+        <v>424.8833333332756</v>
       </c>
     </row>
     <row r="686">
@@ -5915,7 +5915,7 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>76.29999999999696</v>
+        <v>483.2833333332225</v>
       </c>
     </row>
     <row r="687">
@@ -5923,7 +5923,7 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>75.69999999999699</v>
+        <v>432.2666666666022</v>
       </c>
     </row>
     <row r="688">
@@ -5931,7 +5931,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>73.08333333333047</v>
+        <v>442.9499999999258</v>
       </c>
     </row>
     <row r="689">
@@ -5939,7 +5939,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>60.88333333333116</v>
+        <v>427.683333333273</v>
       </c>
     </row>
     <row r="690">
@@ -5947,7 +5947,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>90.58333333332948</v>
+        <v>480.7833333332247</v>
       </c>
     </row>
     <row r="691">
@@ -5955,7 +5955,7 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>86.7333333333297</v>
+        <v>446.3666666665894</v>
       </c>
     </row>
     <row r="692">
@@ -5963,7 +5963,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>72.54999999999717</v>
+        <v>405.1166666666269</v>
       </c>
     </row>
     <row r="693">
@@ -5971,7 +5971,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>69.16666666666403</v>
+        <v>359.3000000000019</v>
       </c>
     </row>
     <row r="694">
@@ -5979,7 +5979,7 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>77.89999999999687</v>
+        <v>530.2499999998464</v>
       </c>
     </row>
     <row r="695">
@@ -5987,7 +5987,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>77.79999999999687</v>
+        <v>370.7666666666581</v>
       </c>
     </row>
     <row r="696">
@@ -5995,7 +5995,7 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>65.68333333333089</v>
+        <v>445.7333333332566</v>
       </c>
     </row>
     <row r="697">
@@ -6003,7 +6003,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>82.26666666666328</v>
+        <v>482.3999999998899</v>
       </c>
     </row>
     <row r="698">
@@ -6011,7 +6011,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>66.68333333333084</v>
+        <v>407.7666666666245</v>
       </c>
     </row>
     <row r="699">
@@ -6019,7 +6019,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>64.11666666666432</v>
+        <v>466.516666666571</v>
       </c>
     </row>
     <row r="700">
@@ -6027,7 +6027,7 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>87.04999999999634</v>
+        <v>459.0166666665779</v>
       </c>
     </row>
     <row r="701">
@@ -6035,7 +6035,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>70.86666666666393</v>
+        <v>467.8166666665699</v>
       </c>
     </row>
     <row r="702">
@@ -6043,7 +6043,7 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>80.2166666666634</v>
+        <v>516.0999999998593</v>
       </c>
     </row>
     <row r="703">
@@ -6051,7 +6051,7 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>71.9499999999972</v>
+        <v>347.1166666666796</v>
       </c>
     </row>
     <row r="704">
@@ -6059,7 +6059,7 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>65.83333333333088</v>
+        <v>393.633333333304</v>
       </c>
     </row>
     <row r="705">
@@ -6067,7 +6067,7 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>78.78333333333015</v>
+        <v>446.4166666665893</v>
       </c>
     </row>
     <row r="706">
@@ -6075,7 +6075,7 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>63.29999999999769</v>
+        <v>468.9333333332355</v>
       </c>
     </row>
     <row r="707">
@@ -6083,7 +6083,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>70.31666666666396</v>
+        <v>384.1499999999793</v>
       </c>
     </row>
     <row r="708">
@@ -6091,7 +6091,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>76.79999999999693</v>
+        <v>415.4166666666175</v>
       </c>
     </row>
     <row r="709">
@@ -6099,7 +6099,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>63.683333333331</v>
+        <v>434.3999999999336</v>
       </c>
     </row>
     <row r="710">
@@ -6107,7 +6107,7 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>74.93333333333037</v>
+        <v>512.716666666529</v>
       </c>
     </row>
     <row r="711">
@@ -6115,7 +6115,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>64.14999999999765</v>
+        <v>556.7333333331557</v>
       </c>
     </row>
     <row r="712">
@@ -6123,7 +6123,7 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>74.93333333333037</v>
+        <v>413.4666666666193</v>
       </c>
     </row>
     <row r="713">
@@ -6131,7 +6131,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>100.9666666666622</v>
+        <v>506.8499999998677</v>
       </c>
     </row>
     <row r="714">
@@ -6139,7 +6139,7 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>67.9666666666641</v>
+        <v>539.9999999998375</v>
       </c>
     </row>
     <row r="715">
@@ -6147,7 +6147,7 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>68.03333333333076</v>
+        <v>371.6999999999906</v>
       </c>
     </row>
     <row r="716">
@@ -6155,7 +6155,7 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>61.99999999999776</v>
+        <v>463.8666666665735</v>
       </c>
     </row>
     <row r="717">
@@ -6163,7 +6163,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>65.38333333333091</v>
+        <v>394.3666666666367</v>
       </c>
     </row>
     <row r="718">
@@ -6171,7 +6171,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>66.41666666666418</v>
+        <v>349.1500000000111</v>
       </c>
     </row>
     <row r="719">
@@ -6179,7 +6179,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>90.53333333332948</v>
+        <v>367.4333333333278</v>
       </c>
     </row>
     <row r="720">
@@ -6187,7 +6187,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>65.46666666666424</v>
+        <v>416.5333333332832</v>
       </c>
     </row>
     <row r="721">
@@ -6195,7 +6195,7 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>60.34999999999786</v>
+        <v>450.0499999999194</v>
       </c>
     </row>
     <row r="722">
@@ -6203,7 +6203,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>80.69999999999671</v>
+        <v>393.249999999971</v>
       </c>
     </row>
     <row r="723">
@@ -6211,7 +6211,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>68.11666666666409</v>
+        <v>508.2833333331997</v>
       </c>
     </row>
     <row r="724">
@@ -6219,7 +6219,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>81.69999999999665</v>
+        <v>423.1333333332772</v>
       </c>
     </row>
     <row r="725">
@@ -6227,7 +6227,7 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>71.18333333333058</v>
+        <v>435.5666666665992</v>
       </c>
     </row>
     <row r="726">
@@ -6235,7 +6235,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>60.89999999999782</v>
+        <v>478.8499999998932</v>
       </c>
     </row>
     <row r="727">
@@ -6243,7 +6243,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>70.26666666666397</v>
+        <v>386.1333333333108</v>
       </c>
     </row>
     <row r="728">
@@ -6251,7 +6251,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>86.81666666666302</v>
+        <v>502.6999999998715</v>
       </c>
     </row>
     <row r="729">
@@ -6259,7 +6259,7 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>75.48333333333034</v>
+        <v>426.6999999999406</v>
       </c>
     </row>
     <row r="730">
@@ -6267,7 +6267,7 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>81.48333333332999</v>
+        <v>493.2499999998801</v>
       </c>
     </row>
     <row r="731">
@@ -6275,7 +6275,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>84.51666666666316</v>
+        <v>328.8166666666963</v>
       </c>
     </row>
     <row r="732">
@@ -6283,7 +6283,7 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>73.98333333333042</v>
+        <v>438.6999999999297</v>
       </c>
     </row>
     <row r="733">
@@ -6291,7 +6291,7 @@
         <v>731</v>
       </c>
       <c r="B733" t="n">
-        <v>78.58333333333016</v>
+        <v>501.1166666665396</v>
       </c>
     </row>
     <row r="734">
@@ -6299,7 +6299,7 @@
         <v>732</v>
       </c>
       <c r="B734" t="n">
-        <v>82.51666666666327</v>
+        <v>420.3999999999463</v>
       </c>
     </row>
     <row r="735">
@@ -6307,7 +6307,7 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>57.13333333333137</v>
+        <v>435.5833333332658</v>
       </c>
     </row>
     <row r="736">
@@ -6315,7 +6315,7 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>91.78333333332941</v>
+        <v>359.7333333333348</v>
       </c>
     </row>
     <row r="737">
@@ -6323,7 +6323,7 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>77.01666666666358</v>
+        <v>404.8833333332938</v>
       </c>
     </row>
     <row r="738">
@@ -6331,7 +6331,7 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>85.74999999999642</v>
+        <v>415.9499999999504</v>
       </c>
     </row>
     <row r="739">
@@ -6339,7 +6339,7 @@
         <v>737</v>
       </c>
       <c r="B739" t="n">
-        <v>85.24999999999645</v>
+        <v>403.1666666666287</v>
       </c>
     </row>
     <row r="740">
@@ -6347,7 +6347,7 @@
         <v>738</v>
       </c>
       <c r="B740" t="n">
-        <v>77.16666666666357</v>
+        <v>463.0499999999075</v>
       </c>
     </row>
     <row r="741">
@@ -6355,7 +6355,7 @@
         <v>739</v>
       </c>
       <c r="B741" t="n">
-        <v>63.61666666666434</v>
+        <v>382.7333333333139</v>
       </c>
     </row>
     <row r="742">
@@ -6363,7 +6363,7 @@
         <v>740</v>
       </c>
       <c r="B742" t="n">
-        <v>60.1333333333312</v>
+        <v>381.6999999999815</v>
       </c>
     </row>
     <row r="743">
@@ -6371,7 +6371,7 @@
         <v>741</v>
       </c>
       <c r="B743" t="n">
-        <v>70.8833333333306</v>
+        <v>413.4166666666193</v>
       </c>
     </row>
     <row r="744">
@@ -6379,7 +6379,7 @@
         <v>742</v>
       </c>
       <c r="B744" t="n">
-        <v>68.18333333333075</v>
+        <v>413.8666666666189</v>
       </c>
     </row>
     <row r="745">
@@ -6387,7 +6387,7 @@
         <v>743</v>
       </c>
       <c r="B745" t="n">
-        <v>64.29999999999764</v>
+        <v>450.9666666665852</v>
       </c>
     </row>
     <row r="746">
@@ -6395,7 +6395,7 @@
         <v>744</v>
       </c>
       <c r="B746" t="n">
-        <v>65.54999999999757</v>
+        <v>515.4833333331932</v>
       </c>
     </row>
     <row r="747">
@@ -6403,7 +6403,7 @@
         <v>745</v>
       </c>
       <c r="B747" t="n">
-        <v>65.84999999999755</v>
+        <v>451.7166666665845</v>
       </c>
     </row>
     <row r="748">
@@ -6411,7 +6411,7 @@
         <v>746</v>
       </c>
       <c r="B748" t="n">
-        <v>67.66666666666411</v>
+        <v>454.2666666665822</v>
       </c>
     </row>
     <row r="749">
@@ -6419,7 +6419,7 @@
         <v>747</v>
       </c>
       <c r="B749" t="n">
-        <v>80.56666666666338</v>
+        <v>500.6333333332067</v>
       </c>
     </row>
     <row r="750">
@@ -6427,7 +6427,7 @@
         <v>748</v>
       </c>
       <c r="B750" t="n">
-        <v>58.3833333333313</v>
+        <v>484.7999999998877</v>
       </c>
     </row>
     <row r="751">
@@ -6435,7 +6435,7 @@
         <v>749</v>
       </c>
       <c r="B751" t="n">
-        <v>82.44999999999661</v>
+        <v>373.2833333333225</v>
       </c>
     </row>
     <row r="752">
@@ -6443,7 +6443,7 @@
         <v>750</v>
       </c>
       <c r="B752" t="n">
-        <v>71.96666666666387</v>
+        <v>415.9166666666171</v>
       </c>
     </row>
     <row r="753">
@@ -6451,7 +6451,7 @@
         <v>751</v>
       </c>
       <c r="B753" t="n">
-        <v>68.26666666666408</v>
+        <v>372.016666666657</v>
       </c>
     </row>
     <row r="754">
@@ -6459,7 +6459,7 @@
         <v>752</v>
       </c>
       <c r="B754" t="n">
-        <v>69.28333333333069</v>
+        <v>394.7166666666363</v>
       </c>
     </row>
     <row r="755">
@@ -6467,7 +6467,7 @@
         <v>753</v>
       </c>
       <c r="B755" t="n">
-        <v>59.03333333333126</v>
+        <v>591.0333333331245</v>
       </c>
     </row>
     <row r="756">
@@ -6475,7 +6475,7 @@
         <v>754</v>
       </c>
       <c r="B756" t="n">
-        <v>83.03333333332991</v>
+        <v>431.1833333332698</v>
       </c>
     </row>
     <row r="757">
@@ -6483,7 +6483,7 @@
         <v>755</v>
       </c>
       <c r="B757" t="n">
-        <v>75.51666666666367</v>
+        <v>405.5833333332931</v>
       </c>
     </row>
     <row r="758">
@@ -6491,7 +6491,7 @@
         <v>756</v>
       </c>
       <c r="B758" t="n">
-        <v>61.71666666666444</v>
+        <v>374.2833333333216</v>
       </c>
     </row>
     <row r="759">
@@ -6499,7 +6499,7 @@
         <v>757</v>
       </c>
       <c r="B759" t="n">
-        <v>75.81666666666365</v>
+        <v>462.5333333332413</v>
       </c>
     </row>
     <row r="760">
@@ -6507,7 +6507,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="n">
-        <v>82.04999999999663</v>
+        <v>432.8833333332683</v>
       </c>
     </row>
     <row r="761">
@@ -6515,7 +6515,7 @@
         <v>759</v>
       </c>
       <c r="B761" t="n">
-        <v>74.54999999999706</v>
+        <v>575.9499999998048</v>
       </c>
     </row>
     <row r="762">
@@ -6523,7 +6523,7 @@
         <v>760</v>
       </c>
       <c r="B762" t="n">
-        <v>78.64999999999682</v>
+        <v>448.8999999999204</v>
       </c>
     </row>
     <row r="763">
@@ -6531,7 +6531,7 @@
         <v>761</v>
       </c>
       <c r="B763" t="n">
-        <v>70.26666666666397</v>
+        <v>392.2333333333053</v>
       </c>
     </row>
     <row r="764">
@@ -6539,7 +6539,7 @@
         <v>762</v>
       </c>
       <c r="B764" t="n">
-        <v>77.79999999999687</v>
+        <v>405.7666666666263</v>
       </c>
     </row>
     <row r="765">
@@ -6547,7 +6547,7 @@
         <v>763</v>
       </c>
       <c r="B765" t="n">
-        <v>63.49999999999768</v>
+        <v>514.0666666665278</v>
       </c>
     </row>
     <row r="766">
@@ -6555,7 +6555,7 @@
         <v>764</v>
       </c>
       <c r="B766" t="n">
-        <v>80.83333333333003</v>
+        <v>536.916666666507</v>
       </c>
     </row>
     <row r="767">
@@ -6563,7 +6563,7 @@
         <v>765</v>
       </c>
       <c r="B767" t="n">
-        <v>63.733333333331</v>
+        <v>354.7666666666727</v>
       </c>
     </row>
     <row r="768">
@@ -6571,7 +6571,7 @@
         <v>766</v>
       </c>
       <c r="B768" t="n">
-        <v>81.09999999999668</v>
+        <v>392.9333333333046</v>
       </c>
     </row>
     <row r="769">
@@ -6579,7 +6579,7 @@
         <v>767</v>
       </c>
       <c r="B769" t="n">
-        <v>67.04999999999748</v>
+        <v>421.4833333332787</v>
       </c>
     </row>
     <row r="770">
@@ -6587,7 +6587,7 @@
         <v>768</v>
       </c>
       <c r="B770" t="n">
-        <v>73.39999999999712</v>
+        <v>424.5333333332759</v>
       </c>
     </row>
     <row r="771">
@@ -6595,7 +6595,7 @@
         <v>769</v>
       </c>
       <c r="B771" t="n">
-        <v>62.19999999999775</v>
+        <v>544.6999999998333</v>
       </c>
     </row>
     <row r="772">
@@ -6603,7 +6603,7 @@
         <v>770</v>
       </c>
       <c r="B772" t="n">
-        <v>69.04999999999737</v>
+        <v>408.5166666666238</v>
       </c>
     </row>
     <row r="773">
@@ -6611,7 +6611,7 @@
         <v>771</v>
       </c>
       <c r="B773" t="n">
-        <v>73.89999999999709</v>
+        <v>516.1833333331925</v>
       </c>
     </row>
     <row r="774">
@@ -6619,7 +6619,7 @@
         <v>772</v>
       </c>
       <c r="B774" t="n">
-        <v>79.78333333333009</v>
+        <v>413.0333333332864</v>
       </c>
     </row>
     <row r="775">
@@ -6627,7 +6627,7 @@
         <v>773</v>
       </c>
       <c r="B775" t="n">
-        <v>65.0499999999976</v>
+        <v>513.433333333195</v>
       </c>
     </row>
     <row r="776">
@@ -6635,7 +6635,7 @@
         <v>774</v>
       </c>
       <c r="B776" t="n">
-        <v>67.69999999999744</v>
+        <v>406.5999999999589</v>
       </c>
     </row>
     <row r="777">
@@ -6643,7 +6643,7 @@
         <v>775</v>
       </c>
       <c r="B777" t="n">
-        <v>69.616666666664</v>
+        <v>391.6333333333058</v>
       </c>
     </row>
     <row r="778">
@@ -6651,7 +6651,7 @@
         <v>776</v>
       </c>
       <c r="B778" t="n">
-        <v>72.21666666666385</v>
+        <v>423.4666666666102</v>
       </c>
     </row>
     <row r="779">
@@ -6659,7 +6659,7 @@
         <v>777</v>
       </c>
       <c r="B779" t="n">
-        <v>86.88333333332969</v>
+        <v>408.9499999999567</v>
       </c>
     </row>
     <row r="780">
@@ -6667,7 +6667,7 @@
         <v>778</v>
       </c>
       <c r="B780" t="n">
-        <v>87.51666666666299</v>
+        <v>503.6666666665373</v>
       </c>
     </row>
     <row r="781">
@@ -6675,7 +6675,7 @@
         <v>779</v>
       </c>
       <c r="B781" t="n">
-        <v>61.76666666666444</v>
+        <v>435.2166666665995</v>
       </c>
     </row>
     <row r="782">
@@ -6683,7 +6683,7 @@
         <v>780</v>
       </c>
       <c r="B782" t="n">
-        <v>68.48333333333073</v>
+        <v>483.6333333332221</v>
       </c>
     </row>
     <row r="783">
@@ -6691,7 +6691,7 @@
         <v>781</v>
       </c>
       <c r="B783" t="n">
-        <v>77.63333333333021</v>
+        <v>552.7833333331592</v>
       </c>
     </row>
     <row r="784">
@@ -6699,7 +6699,7 @@
         <v>782</v>
       </c>
       <c r="B784" t="n">
-        <v>66.34999999999752</v>
+        <v>463.0999999999075</v>
       </c>
     </row>
     <row r="785">
@@ -6707,7 +6707,7 @@
         <v>783</v>
       </c>
       <c r="B785" t="n">
-        <v>73.53333333333045</v>
+        <v>480.1166666665587</v>
       </c>
     </row>
     <row r="786">
@@ -6715,7 +6715,7 @@
         <v>784</v>
       </c>
       <c r="B786" t="n">
-        <v>73.24999999999713</v>
+        <v>516.7499999998587</v>
       </c>
     </row>
     <row r="787">
@@ -6723,7 +6723,7 @@
         <v>785</v>
       </c>
       <c r="B787" t="n">
-        <v>77.54999999999688</v>
+        <v>336.3500000000228</v>
       </c>
     </row>
     <row r="788">
@@ -6731,7 +6731,7 @@
         <v>786</v>
       </c>
       <c r="B788" t="n">
-        <v>75.28333333333035</v>
+        <v>520.1999999998555</v>
       </c>
     </row>
     <row r="789">
@@ -6739,7 +6739,7 @@
         <v>787</v>
       </c>
       <c r="B789" t="n">
-        <v>79.64999999999677</v>
+        <v>373.6666666666555</v>
       </c>
     </row>
     <row r="790">
@@ -6747,7 +6747,7 @@
         <v>788</v>
       </c>
       <c r="B790" t="n">
-        <v>78.4166666666635</v>
+        <v>436.2499999999319</v>
       </c>
     </row>
     <row r="791">
@@ -6755,7 +6755,7 @@
         <v>789</v>
       </c>
       <c r="B791" t="n">
-        <v>67.68333333333078</v>
+        <v>340.8666666666853</v>
       </c>
     </row>
     <row r="792">
@@ -6763,7 +6763,7 @@
         <v>790</v>
       </c>
       <c r="B792" t="n">
-        <v>69.716666666664</v>
+        <v>427.5999999999398</v>
       </c>
     </row>
     <row r="793">
@@ -6771,7 +6771,7 @@
         <v>791</v>
       </c>
       <c r="B793" t="n">
-        <v>87.18333333332967</v>
+        <v>406.9166666666252</v>
       </c>
     </row>
     <row r="794">
@@ -6779,7 +6779,7 @@
         <v>792</v>
       </c>
       <c r="B794" t="n">
-        <v>84.63333333332982</v>
+        <v>504.6166666665364</v>
       </c>
     </row>
     <row r="795">
@@ -6787,7 +6787,7 @@
         <v>793</v>
       </c>
       <c r="B795" t="n">
-        <v>93.31666666666266</v>
+        <v>507.7833333332002</v>
       </c>
     </row>
     <row r="796">
@@ -6795,7 +6795,7 @@
         <v>794</v>
       </c>
       <c r="B796" t="n">
-        <v>87.83333333332963</v>
+        <v>424.6166666666091</v>
       </c>
     </row>
     <row r="797">
@@ -6803,7 +6803,7 @@
         <v>795</v>
       </c>
       <c r="B797" t="n">
-        <v>70.46666666666395</v>
+        <v>486.5166666665529</v>
       </c>
     </row>
     <row r="798">
@@ -6811,7 +6811,7 @@
         <v>796</v>
       </c>
       <c r="B798" t="n">
-        <v>56.99999999999805</v>
+        <v>350.5666666666765</v>
       </c>
     </row>
     <row r="799">
@@ -6819,7 +6819,7 @@
         <v>797</v>
       </c>
       <c r="B799" t="n">
-        <v>87.09999999999634</v>
+        <v>433.4666666666011</v>
       </c>
     </row>
     <row r="800">
@@ -6827,7 +6827,7 @@
         <v>798</v>
       </c>
       <c r="B800" t="n">
-        <v>68.11666666666409</v>
+        <v>566.949999999813</v>
       </c>
     </row>
     <row r="801">
@@ -6835,7 +6835,7 @@
         <v>799</v>
       </c>
       <c r="B801" t="n">
-        <v>67.76666666666411</v>
+        <v>448.0333333332545</v>
       </c>
     </row>
     <row r="802">
@@ -6843,7 +6843,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="n">
-        <v>77.26666666666357</v>
+        <v>530.4166666665129</v>
       </c>
     </row>
     <row r="803">
@@ -6851,7 +6851,7 @@
         <v>801</v>
       </c>
       <c r="B803" t="n">
-        <v>64.11666666666432</v>
+        <v>381.0666666666488</v>
       </c>
     </row>
     <row r="804">
@@ -6859,7 +6859,7 @@
         <v>802</v>
       </c>
       <c r="B804" t="n">
-        <v>67.16666666666414</v>
+        <v>367.0833333333281</v>
       </c>
     </row>
     <row r="805">
@@ -6867,7 +6867,7 @@
         <v>803</v>
       </c>
       <c r="B805" t="n">
-        <v>80.89999999999669</v>
+        <v>559.3833333331532</v>
       </c>
     </row>
     <row r="806">
@@ -6875,7 +6875,7 @@
         <v>804</v>
       </c>
       <c r="B806" t="n">
-        <v>70.21666666666397</v>
+        <v>502.8999999998713</v>
       </c>
     </row>
     <row r="807">
@@ -6883,7 +6883,7 @@
         <v>805</v>
       </c>
       <c r="B807" t="n">
-        <v>71.83333333333054</v>
+        <v>542.5666666665019</v>
       </c>
     </row>
     <row r="808">
@@ -6891,7 +6891,7 @@
         <v>806</v>
       </c>
       <c r="B808" t="n">
-        <v>90.98333333332945</v>
+        <v>483.4333333332223</v>
       </c>
     </row>
     <row r="809">
@@ -6899,7 +6899,7 @@
         <v>807</v>
       </c>
       <c r="B809" t="n">
-        <v>71.23333333333058</v>
+        <v>481.4999999998907</v>
       </c>
     </row>
     <row r="810">
@@ -6907,7 +6907,7 @@
         <v>808</v>
       </c>
       <c r="B810" t="n">
-        <v>56.88333333333139</v>
+        <v>359.4500000000018</v>
       </c>
     </row>
     <row r="811">
@@ -6915,7 +6915,7 @@
         <v>809</v>
       </c>
       <c r="B811" t="n">
-        <v>60.89999999999782</v>
+        <v>473.0333333332318</v>
       </c>
     </row>
     <row r="812">
@@ -6923,7 +6923,7 @@
         <v>810</v>
       </c>
       <c r="B812" t="n">
-        <v>67.64999999999745</v>
+        <v>415.5499999999507</v>
       </c>
     </row>
     <row r="813">
@@ -6931,7 +6931,7 @@
         <v>811</v>
       </c>
       <c r="B813" t="n">
-        <v>66.53333333333084</v>
+        <v>361.35</v>
       </c>
     </row>
     <row r="814">
@@ -6939,7 +6939,7 @@
         <v>812</v>
       </c>
       <c r="B814" t="n">
-        <v>72.66666666666383</v>
+        <v>364.5833333333304</v>
       </c>
     </row>
     <row r="815">
@@ -6947,7 +6947,7 @@
         <v>813</v>
       </c>
       <c r="B815" t="n">
-        <v>85.93333333332974</v>
+        <v>397.2499999999674</v>
       </c>
     </row>
     <row r="816">
@@ -6955,7 +6955,7 @@
         <v>814</v>
       </c>
       <c r="B816" t="n">
-        <v>58.08333333333132</v>
+        <v>452.3833333332506</v>
       </c>
     </row>
     <row r="817">
@@ -6963,7 +6963,7 @@
         <v>815</v>
       </c>
       <c r="B817" t="n">
-        <v>72.29999999999718</v>
+        <v>372.9666666666561</v>
       </c>
     </row>
     <row r="818">
@@ -6971,7 +6971,7 @@
         <v>816</v>
       </c>
       <c r="B818" t="n">
-        <v>66.04999999999754</v>
+        <v>391.7166666666391</v>
       </c>
     </row>
     <row r="819">
@@ -6979,7 +6979,7 @@
         <v>817</v>
       </c>
       <c r="B819" t="n">
-        <v>69.91666666666399</v>
+        <v>343.6166666666828</v>
       </c>
     </row>
     <row r="820">
@@ -6987,7 +6987,7 @@
         <v>818</v>
       </c>
       <c r="B820" t="n">
-        <v>65.4833333333309</v>
+        <v>390.1833333333071</v>
       </c>
     </row>
     <row r="821">
@@ -6995,7 +6995,7 @@
         <v>819</v>
       </c>
       <c r="B821" t="n">
-        <v>85.38333333332977</v>
+        <v>362.9833333333319</v>
       </c>
     </row>
     <row r="822">
@@ -7003,7 +7003,7 @@
         <v>820</v>
       </c>
       <c r="B822" t="n">
-        <v>75.08333333333036</v>
+        <v>540.7666666665035</v>
       </c>
     </row>
     <row r="823">
@@ -7011,7 +7011,7 @@
         <v>821</v>
       </c>
       <c r="B823" t="n">
-        <v>84.68333333332981</v>
+        <v>457.2166666665795</v>
       </c>
     </row>
     <row r="824">
@@ -7019,7 +7019,7 @@
         <v>822</v>
       </c>
       <c r="B824" t="n">
-        <v>69.39999999999735</v>
+        <v>432.3833333332688</v>
       </c>
     </row>
     <row r="825">
@@ -7027,7 +7027,7 @@
         <v>823</v>
       </c>
       <c r="B825" t="n">
-        <v>78.31666666666351</v>
+        <v>435.1833333332662</v>
       </c>
     </row>
     <row r="826">
@@ -7035,7 +7035,7 @@
         <v>824</v>
       </c>
       <c r="B826" t="n">
-        <v>62.64999999999772</v>
+        <v>328.1833333333635</v>
       </c>
     </row>
     <row r="827">
@@ -7043,7 +7043,7 @@
         <v>825</v>
       </c>
       <c r="B827" t="n">
-        <v>68.48333333333073</v>
+        <v>382.4666666666475</v>
       </c>
     </row>
     <row r="828">
@@ -7051,7 +7051,7 @@
         <v>826</v>
       </c>
       <c r="B828" t="n">
-        <v>75.14999999999702</v>
+        <v>414.4999999999517</v>
       </c>
     </row>
     <row r="829">
@@ -7059,7 +7059,7 @@
         <v>827</v>
       </c>
       <c r="B829" t="n">
-        <v>70.94999999999726</v>
+        <v>380.2666666666495</v>
       </c>
     </row>
     <row r="830">
@@ -7067,7 +7067,7 @@
         <v>828</v>
       </c>
       <c r="B830" t="n">
-        <v>59.38333333333124</v>
+        <v>378.8499999999841</v>
       </c>
     </row>
     <row r="831">
@@ -7075,7 +7075,7 @@
         <v>829</v>
       </c>
       <c r="B831" t="n">
-        <v>70.79999999999727</v>
+        <v>489.0833333332172</v>
       </c>
     </row>
     <row r="832">
@@ -7083,7 +7083,7 @@
         <v>830</v>
       </c>
       <c r="B832" t="n">
-        <v>69.59999999999734</v>
+        <v>387.2333333333098</v>
       </c>
     </row>
     <row r="833">
@@ -7091,7 +7091,7 @@
         <v>831</v>
       </c>
       <c r="B833" t="n">
-        <v>85.36666666666311</v>
+        <v>436.7166666665981</v>
       </c>
     </row>
     <row r="834">
@@ -7099,7 +7099,7 @@
         <v>832</v>
       </c>
       <c r="B834" t="n">
-        <v>73.2166666666638</v>
+        <v>416.5833333332831</v>
       </c>
     </row>
     <row r="835">
@@ -7107,7 +7107,7 @@
         <v>833</v>
       </c>
       <c r="B835" t="n">
-        <v>81.84999999999664</v>
+        <v>461.3666666665757</v>
       </c>
     </row>
     <row r="836">
@@ -7115,7 +7115,7 @@
         <v>834</v>
       </c>
       <c r="B836" t="n">
-        <v>72.39999999999718</v>
+        <v>352.3500000000082</v>
       </c>
     </row>
     <row r="837">
@@ -7123,7 +7123,7 @@
         <v>835</v>
       </c>
       <c r="B837" t="n">
-        <v>78.01666666666353</v>
+        <v>455.6333333332476</v>
       </c>
     </row>
     <row r="838">
@@ -7131,7 +7131,7 @@
         <v>836</v>
       </c>
       <c r="B838" t="n">
-        <v>82.61666666666326</v>
+        <v>408.3499999999573</v>
       </c>
     </row>
     <row r="839">
@@ -7139,7 +7139,7 @@
         <v>837</v>
       </c>
       <c r="B839" t="n">
-        <v>91.01666666666279</v>
+        <v>471.3499999999</v>
       </c>
     </row>
     <row r="840">
@@ -7147,7 +7147,7 @@
         <v>838</v>
       </c>
       <c r="B840" t="n">
-        <v>66.1666666666642</v>
+        <v>556.333333333156</v>
       </c>
     </row>
     <row r="841">
@@ -7155,7 +7155,7 @@
         <v>839</v>
       </c>
       <c r="B841" t="n">
-        <v>68.64999999999739</v>
+        <v>487.1166666665523</v>
       </c>
     </row>
     <row r="842">
@@ -7163,7 +7163,7 @@
         <v>840</v>
       </c>
       <c r="B842" t="n">
-        <v>74.74999999999704</v>
+        <v>406.5833333332922</v>
       </c>
     </row>
     <row r="843">
@@ -7171,7 +7171,7 @@
         <v>841</v>
       </c>
       <c r="B843" t="n">
-        <v>61.49999999999779</v>
+        <v>489.7166666665499</v>
       </c>
     </row>
     <row r="844">
@@ -7179,7 +7179,7 @@
         <v>842</v>
       </c>
       <c r="B844" t="n">
-        <v>81.39999999999667</v>
+        <v>539.4333333331714</v>
       </c>
     </row>
     <row r="845">
@@ -7187,7 +7187,7 @@
         <v>843</v>
       </c>
       <c r="B845" t="n">
-        <v>94.39999999999593</v>
+        <v>462.4499999999081</v>
       </c>
     </row>
     <row r="846">
@@ -7195,7 +7195,7 @@
         <v>844</v>
       </c>
       <c r="B846" t="n">
-        <v>68.84999999999738</v>
+        <v>440.7333333332612</v>
       </c>
     </row>
     <row r="847">
@@ -7203,7 +7203,7 @@
         <v>845</v>
       </c>
       <c r="B847" t="n">
-        <v>73.1166666666638</v>
+        <v>446.5666666665892</v>
       </c>
     </row>
     <row r="848">
@@ -7211,7 +7211,7 @@
         <v>846</v>
       </c>
       <c r="B848" t="n">
-        <v>73.63333333333044</v>
+        <v>348.1000000000121</v>
       </c>
     </row>
     <row r="849">
@@ -7219,7 +7219,7 @@
         <v>847</v>
       </c>
       <c r="B849" t="n">
-        <v>97.33333333332909</v>
+        <v>483.399999999889</v>
       </c>
     </row>
     <row r="850">
@@ -7227,7 +7227,7 @@
         <v>848</v>
       </c>
       <c r="B850" t="n">
-        <v>64.78333333333094</v>
+        <v>371.0999999999912</v>
       </c>
     </row>
     <row r="851">
@@ -7235,7 +7235,7 @@
         <v>849</v>
       </c>
       <c r="B851" t="n">
-        <v>68.58333333333073</v>
+        <v>535.6999999998415</v>
       </c>
     </row>
     <row r="852">
@@ -7243,7 +7243,7 @@
         <v>850</v>
       </c>
       <c r="B852" t="n">
-        <v>71.98333333333053</v>
+        <v>463.6833333332403</v>
       </c>
     </row>
     <row r="853">
@@ -7251,7 +7251,7 @@
         <v>851</v>
       </c>
       <c r="B853" t="n">
-        <v>65.51666666666424</v>
+        <v>418.1833333332817</v>
       </c>
     </row>
     <row r="854">
@@ -7259,7 +7259,7 @@
         <v>852</v>
       </c>
       <c r="B854" t="n">
-        <v>69.28333333333069</v>
+        <v>438.8666666665962</v>
       </c>
     </row>
     <row r="855">
@@ -7267,7 +7267,7 @@
         <v>853</v>
       </c>
       <c r="B855" t="n">
-        <v>60.8166666666645</v>
+        <v>349.5000000000108</v>
       </c>
     </row>
     <row r="856">
@@ -7275,7 +7275,7 @@
         <v>854</v>
       </c>
       <c r="B856" t="n">
-        <v>72.36666666666385</v>
+        <v>337.9500000000213</v>
       </c>
     </row>
     <row r="857">
@@ -7283,7 +7283,7 @@
         <v>855</v>
       </c>
       <c r="B857" t="n">
-        <v>62.4666666666644</v>
+        <v>465.9999999999048</v>
       </c>
     </row>
     <row r="858">
@@ -7291,7 +7291,7 @@
         <v>856</v>
       </c>
       <c r="B858" t="n">
-        <v>75.86666666666365</v>
+        <v>404.0166666666279</v>
       </c>
     </row>
     <row r="859">
@@ -7299,7 +7299,7 @@
         <v>857</v>
       </c>
       <c r="B859" t="n">
-        <v>86.19999999999639</v>
+        <v>418.0499999999485</v>
       </c>
     </row>
     <row r="860">
@@ -7307,7 +7307,7 @@
         <v>858</v>
       </c>
       <c r="B860" t="n">
-        <v>66.46666666666418</v>
+        <v>437.5666666665974</v>
       </c>
     </row>
     <row r="861">
@@ -7315,7 +7315,7 @@
         <v>859</v>
       </c>
       <c r="B861" t="n">
-        <v>60.0833333333312</v>
+        <v>351.0166666666761</v>
       </c>
     </row>
     <row r="862">
@@ -7323,7 +7323,7 @@
         <v>860</v>
       </c>
       <c r="B862" t="n">
-        <v>70.14999999999731</v>
+        <v>442.7999999999259</v>
       </c>
     </row>
     <row r="863">
@@ -7331,7 +7331,7 @@
         <v>861</v>
       </c>
       <c r="B863" t="n">
-        <v>71.9499999999972</v>
+        <v>500.2999999998736</v>
       </c>
     </row>
     <row r="864">
@@ -7339,7 +7339,7 @@
         <v>862</v>
       </c>
       <c r="B864" t="n">
-        <v>71.88333333333054</v>
+        <v>490.1999999998828</v>
       </c>
     </row>
     <row r="865">
@@ -7347,7 +7347,7 @@
         <v>863</v>
       </c>
       <c r="B865" t="n">
-        <v>88.18333333332961</v>
+        <v>464.1833333332398</v>
       </c>
     </row>
     <row r="866">
@@ -7355,7 +7355,7 @@
         <v>864</v>
       </c>
       <c r="B866" t="n">
-        <v>74.9666666666637</v>
+        <v>421.799999999945</v>
       </c>
     </row>
     <row r="867">
@@ -7363,7 +7363,7 @@
         <v>865</v>
       </c>
       <c r="B867" t="n">
-        <v>56.83333333333139</v>
+        <v>373.7333333333221</v>
       </c>
     </row>
     <row r="868">
@@ -7371,7 +7371,7 @@
         <v>866</v>
       </c>
       <c r="B868" t="n">
-        <v>69.43333333333068</v>
+        <v>377.5666666666519</v>
       </c>
     </row>
     <row r="869">
@@ -7379,7 +7379,7 @@
         <v>867</v>
       </c>
       <c r="B869" t="n">
-        <v>63.88333333333099</v>
+        <v>522.7999999998532</v>
       </c>
     </row>
     <row r="870">
@@ -7387,7 +7387,7 @@
         <v>868</v>
       </c>
       <c r="B870" t="n">
-        <v>76.7166666666636</v>
+        <v>475.6499999998961</v>
       </c>
     </row>
     <row r="871">
@@ -7395,7 +7395,7 @@
         <v>869</v>
       </c>
       <c r="B871" t="n">
-        <v>63.89999999999765</v>
+        <v>448.8333333332538</v>
       </c>
     </row>
     <row r="872">
@@ -7403,7 +7403,7 @@
         <v>870</v>
       </c>
       <c r="B872" t="n">
-        <v>74.68333333333038</v>
+        <v>351.7333333333421</v>
       </c>
     </row>
     <row r="873">
@@ -7411,7 +7411,7 @@
         <v>871</v>
       </c>
       <c r="B873" t="n">
-        <v>61.66666666666445</v>
+        <v>368.4833333333269</v>
       </c>
     </row>
     <row r="874">
@@ -7419,7 +7419,7 @@
         <v>872</v>
       </c>
       <c r="B874" t="n">
-        <v>66.76666666666416</v>
+        <v>384.3166666666458</v>
       </c>
     </row>
     <row r="875">
@@ -7427,7 +7427,7 @@
         <v>873</v>
       </c>
       <c r="B875" t="n">
-        <v>85.76666666666308</v>
+        <v>536.6333333331739</v>
       </c>
     </row>
     <row r="876">
@@ -7435,7 +7435,7 @@
         <v>874</v>
       </c>
       <c r="B876" t="n">
-        <v>62.96666666666437</v>
+        <v>389.7666666666408</v>
       </c>
     </row>
     <row r="877">
@@ -7443,7 +7443,7 @@
         <v>875</v>
       </c>
       <c r="B877" t="n">
-        <v>68.96666666666404</v>
+        <v>379.3999999999836</v>
       </c>
     </row>
     <row r="878">
@@ -7451,7 +7451,7 @@
         <v>876</v>
       </c>
       <c r="B878" t="n">
-        <v>74.26666666666374</v>
+        <v>362.9499999999986</v>
       </c>
     </row>
     <row r="879">
@@ -7459,7 +7459,7 @@
         <v>877</v>
       </c>
       <c r="B879" t="n">
-        <v>69.84999999999732</v>
+        <v>369.0666666666597</v>
       </c>
     </row>
     <row r="880">
@@ -7467,7 +7467,7 @@
         <v>878</v>
       </c>
       <c r="B880" t="n">
-        <v>68.78333333333072</v>
+        <v>424.6999999999424</v>
       </c>
     </row>
     <row r="881">
@@ -7475,7 +7475,7 @@
         <v>879</v>
       </c>
       <c r="B881" t="n">
-        <v>68.5499999999974</v>
+        <v>456.9166666665798</v>
       </c>
     </row>
     <row r="882">
@@ -7483,7 +7483,7 @@
         <v>880</v>
       </c>
       <c r="B882" t="n">
-        <v>71.68333333333055</v>
+        <v>436.0666666665987</v>
       </c>
     </row>
     <row r="883">
@@ -7491,7 +7491,7 @@
         <v>881</v>
       </c>
       <c r="B883" t="n">
-        <v>72.79999999999715</v>
+        <v>425.6833333332748</v>
       </c>
     </row>
     <row r="884">
@@ -7499,7 +7499,7 @@
         <v>882</v>
       </c>
       <c r="B884" t="n">
-        <v>92.36666666666271</v>
+        <v>401.3499999999636</v>
       </c>
     </row>
     <row r="885">
@@ -7507,7 +7507,7 @@
         <v>883</v>
       </c>
       <c r="B885" t="n">
-        <v>71.44999999999723</v>
+        <v>522.6499999998533</v>
       </c>
     </row>
     <row r="886">
@@ -7515,7 +7515,7 @@
         <v>884</v>
       </c>
       <c r="B886" t="n">
-        <v>67.06666666666415</v>
+        <v>435.6833333332658</v>
       </c>
     </row>
     <row r="887">
@@ -7523,7 +7523,7 @@
         <v>885</v>
       </c>
       <c r="B887" t="n">
-        <v>73.1166666666638</v>
+        <v>471.9833333332327</v>
       </c>
     </row>
     <row r="888">
@@ -7531,7 +7531,7 @@
         <v>886</v>
       </c>
       <c r="B888" t="n">
-        <v>79.5833333333301</v>
+        <v>510.9666666665306</v>
       </c>
     </row>
     <row r="889">
@@ -7539,7 +7539,7 @@
         <v>887</v>
       </c>
       <c r="B889" t="n">
-        <v>60.8166666666645</v>
+        <v>398.416666666633</v>
       </c>
     </row>
     <row r="890">
@@ -7547,7 +7547,7 @@
         <v>888</v>
       </c>
       <c r="B890" t="n">
-        <v>79.96666666666341</v>
+        <v>494.1833333332125</v>
       </c>
     </row>
     <row r="891">
@@ -7555,7 +7555,7 @@
         <v>889</v>
       </c>
       <c r="B891" t="n">
-        <v>64.91666666666427</v>
+        <v>439.3833333332624</v>
       </c>
     </row>
     <row r="892">
@@ -7563,7 +7563,7 @@
         <v>890</v>
       </c>
       <c r="B892" t="n">
-        <v>65.0499999999976</v>
+        <v>430.98333333327</v>
       </c>
     </row>
     <row r="893">
@@ -7571,7 +7571,7 @@
         <v>891</v>
       </c>
       <c r="B893" t="n">
-        <v>75.04999999999703</v>
+        <v>409.8833333332892</v>
       </c>
     </row>
     <row r="894">
@@ -7579,7 +7579,7 @@
         <v>892</v>
       </c>
       <c r="B894" t="n">
-        <v>78.29999999999684</v>
+        <v>477.8499999998941</v>
       </c>
     </row>
     <row r="895">
@@ -7587,7 +7587,7 @@
         <v>893</v>
       </c>
       <c r="B895" t="n">
-        <v>63.29999999999769</v>
+        <v>478.3833333332269</v>
       </c>
     </row>
     <row r="896">
@@ -7595,7 +7595,7 @@
         <v>894</v>
       </c>
       <c r="B896" t="n">
-        <v>76.04999999999697</v>
+        <v>393.6166666666373</v>
       </c>
     </row>
     <row r="897">
@@ -7603,7 +7603,7 @@
         <v>895</v>
       </c>
       <c r="B897" t="n">
-        <v>64.83333333333094</v>
+        <v>355.0666666666724</v>
       </c>
     </row>
     <row r="898">
@@ -7611,7 +7611,7 @@
         <v>896</v>
       </c>
       <c r="B898" t="n">
-        <v>63.84999999999766</v>
+        <v>470.8166666665671</v>
       </c>
     </row>
     <row r="899">
@@ -7619,7 +7619,7 @@
         <v>897</v>
       </c>
       <c r="B899" t="n">
-        <v>66.71666666666417</v>
+        <v>469.3166666665685</v>
       </c>
     </row>
     <row r="900">
@@ -7627,7 +7627,7 @@
         <v>898</v>
       </c>
       <c r="B900" t="n">
-        <v>97.29999999999576</v>
+        <v>520.033333333189</v>
       </c>
     </row>
     <row r="901">
@@ -7635,7 +7635,7 @@
         <v>899</v>
       </c>
       <c r="B901" t="n">
-        <v>69.09999999999737</v>
+        <v>467.66666666657</v>
       </c>
     </row>
     <row r="902">
@@ -7643,7 +7643,7 @@
         <v>900</v>
       </c>
       <c r="B902" t="n">
-        <v>68.46666666666407</v>
+        <v>533.233333333177</v>
       </c>
     </row>
     <row r="903">
@@ -7651,7 +7651,7 @@
         <v>901</v>
       </c>
       <c r="B903" t="n">
-        <v>73.81666666666376</v>
+        <v>392.1333333333054</v>
       </c>
     </row>
     <row r="904">
@@ -7659,7 +7659,7 @@
         <v>902</v>
       </c>
       <c r="B904" t="n">
-        <v>93.08333333332934</v>
+        <v>485.7833333332202</v>
       </c>
     </row>
     <row r="905">
@@ -7667,7 +7667,7 @@
         <v>903</v>
       </c>
       <c r="B905" t="n">
-        <v>72.39999999999718</v>
+        <v>346.8500000000132</v>
       </c>
     </row>
     <row r="906">
@@ -7675,7 +7675,7 @@
         <v>904</v>
       </c>
       <c r="B906" t="n">
-        <v>77.43333333333022</v>
+        <v>485.0333333332209</v>
       </c>
     </row>
     <row r="907">
@@ -7683,7 +7683,7 @@
         <v>905</v>
       </c>
       <c r="B907" t="n">
-        <v>77.71666666666354</v>
+        <v>449.2833333332534</v>
       </c>
     </row>
     <row r="908">
@@ -7691,7 +7691,7 @@
         <v>906</v>
       </c>
       <c r="B908" t="n">
-        <v>77.78333333333021</v>
+        <v>395.8999999999686</v>
       </c>
     </row>
     <row r="909">
@@ -7699,7 +7699,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="n">
-        <v>62.53333333333106</v>
+        <v>375.9666666666534</v>
       </c>
     </row>
     <row r="910">
@@ -7707,7 +7707,7 @@
         <v>908</v>
       </c>
       <c r="B910" t="n">
-        <v>55.5166666666648</v>
+        <v>377.083333333319</v>
       </c>
     </row>
     <row r="911">
@@ -7715,7 +7715,7 @@
         <v>909</v>
       </c>
       <c r="B911" t="n">
-        <v>65.64999999999756</v>
+        <v>459.0833333332445</v>
       </c>
     </row>
     <row r="912">
@@ -7723,7 +7723,7 @@
         <v>910</v>
       </c>
       <c r="B912" t="n">
-        <v>67.26666666666414</v>
+        <v>435.3999999999327</v>
       </c>
     </row>
     <row r="913">
@@ -7731,7 +7731,7 @@
         <v>911</v>
       </c>
       <c r="B913" t="n">
-        <v>73.28333333333046</v>
+        <v>496.6166666665437</v>
       </c>
     </row>
     <row r="914">
@@ -7739,7 +7739,7 @@
         <v>912</v>
       </c>
       <c r="B914" t="n">
-        <v>72.71666666666383</v>
+        <v>483.783333333222</v>
       </c>
     </row>
     <row r="915">
@@ -7747,7 +7747,7 @@
         <v>913</v>
       </c>
       <c r="B915" t="n">
-        <v>67.99999999999743</v>
+        <v>400.1666666666314</v>
       </c>
     </row>
     <row r="916">
@@ -7755,7 +7755,7 @@
         <v>914</v>
       </c>
       <c r="B916" t="n">
-        <v>85.86666666666308</v>
+        <v>548.7333333331629</v>
       </c>
     </row>
     <row r="917">
@@ -7763,7 +7763,7 @@
         <v>915</v>
       </c>
       <c r="B917" t="n">
-        <v>62.33333333333108</v>
+        <v>453.4333333332496</v>
       </c>
     </row>
     <row r="918">
@@ -7771,7 +7771,7 @@
         <v>916</v>
       </c>
       <c r="B918" t="n">
-        <v>57.51666666666468</v>
+        <v>400.8333333332974</v>
       </c>
     </row>
     <row r="919">
@@ -7779,7 +7779,7 @@
         <v>917</v>
       </c>
       <c r="B919" t="n">
-        <v>81.13333333333001</v>
+        <v>406.6833333332921</v>
       </c>
     </row>
     <row r="920">
@@ -7787,7 +7787,7 @@
         <v>918</v>
       </c>
       <c r="B920" t="n">
-        <v>81.61666666666332</v>
+        <v>440.3166666665949</v>
       </c>
     </row>
     <row r="921">
@@ -7795,7 +7795,7 @@
         <v>919</v>
       </c>
       <c r="B921" t="n">
-        <v>87.13333333332967</v>
+        <v>345.566666666681</v>
       </c>
     </row>
     <row r="922">
@@ -7803,7 +7803,7 @@
         <v>920</v>
       </c>
       <c r="B922" t="n">
-        <v>70.31666666666396</v>
+        <v>398.7333333332994</v>
       </c>
     </row>
     <row r="923">
@@ -7811,7 +7811,7 @@
         <v>921</v>
       </c>
       <c r="B923" t="n">
-        <v>81.59999999999665</v>
+        <v>410.6333333332885</v>
       </c>
     </row>
     <row r="924">
@@ -7819,7 +7819,7 @@
         <v>922</v>
       </c>
       <c r="B924" t="n">
-        <v>69.39999999999735</v>
+        <v>455.2166666665813</v>
       </c>
     </row>
     <row r="925">
@@ -7827,7 +7827,7 @@
         <v>923</v>
       </c>
       <c r="B925" t="n">
-        <v>67.39999999999746</v>
+        <v>414.3499999999518</v>
       </c>
     </row>
     <row r="926">
@@ -7835,7 +7835,7 @@
         <v>924</v>
       </c>
       <c r="B926" t="n">
-        <v>73.56666666666378</v>
+        <v>580.533333333134</v>
       </c>
     </row>
     <row r="927">
@@ -7843,7 +7843,7 @@
         <v>925</v>
       </c>
       <c r="B927" t="n">
-        <v>79.48333333333011</v>
+        <v>334.4500000000245</v>
       </c>
     </row>
     <row r="928">
@@ -7851,7 +7851,7 @@
         <v>926</v>
       </c>
       <c r="B928" t="n">
-        <v>67.24999999999747</v>
+        <v>381.7333333333148</v>
       </c>
     </row>
     <row r="929">
@@ -7859,7 +7859,7 @@
         <v>927</v>
       </c>
       <c r="B929" t="n">
-        <v>76.96666666666358</v>
+        <v>422.999999999944</v>
       </c>
     </row>
     <row r="930">
@@ -7867,7 +7867,7 @@
         <v>928</v>
       </c>
       <c r="B930" t="n">
-        <v>71.81666666666388</v>
+        <v>477.0999999998947</v>
       </c>
     </row>
     <row r="931">
@@ -7875,7 +7875,7 @@
         <v>929</v>
       </c>
       <c r="B931" t="n">
-        <v>68.83333333333071</v>
+        <v>407.6166666666246</v>
       </c>
     </row>
     <row r="932">
@@ -7883,7 +7883,7 @@
         <v>930</v>
       </c>
       <c r="B932" t="n">
-        <v>97.94999999999573</v>
+        <v>421.7333333332784</v>
       </c>
     </row>
     <row r="933">
@@ -7891,7 +7891,7 @@
         <v>931</v>
       </c>
       <c r="B933" t="n">
-        <v>87.06666666666301</v>
+        <v>478.1833333332271</v>
       </c>
     </row>
     <row r="934">
@@ -7899,7 +7899,7 @@
         <v>932</v>
       </c>
       <c r="B934" t="n">
-        <v>63.29999999999769</v>
+        <v>400.9666666666307</v>
       </c>
     </row>
     <row r="935">
@@ -7907,7 +7907,7 @@
         <v>933</v>
       </c>
       <c r="B935" t="n">
-        <v>62.36666666666441</v>
+        <v>491.8499999998813</v>
       </c>
     </row>
     <row r="936">
@@ -7915,7 +7915,7 @@
         <v>934</v>
       </c>
       <c r="B936" t="n">
-        <v>67.03333333333082</v>
+        <v>372.3333333333234</v>
       </c>
     </row>
     <row r="937">
@@ -7923,7 +7923,7 @@
         <v>935</v>
       </c>
       <c r="B937" t="n">
-        <v>69.38333333333068</v>
+        <v>408.7666666666236</v>
       </c>
     </row>
     <row r="938">
@@ -7931,7 +7931,7 @@
         <v>936</v>
       </c>
       <c r="B938" t="n">
-        <v>69.26666666666402</v>
+        <v>483.8499999998886</v>
       </c>
     </row>
     <row r="939">
@@ -7939,7 +7939,7 @@
         <v>937</v>
       </c>
       <c r="B939" t="n">
-        <v>65.39999999999758</v>
+        <v>353.1333333333408</v>
       </c>
     </row>
     <row r="940">
@@ -7947,7 +7947,7 @@
         <v>938</v>
       </c>
       <c r="B940" t="n">
-        <v>72.46666666666384</v>
+        <v>457.8999999999122</v>
       </c>
     </row>
     <row r="941">
@@ -7955,7 +7955,7 @@
         <v>939</v>
       </c>
       <c r="B941" t="n">
-        <v>69.41666666666401</v>
+        <v>437.2999999999309</v>
       </c>
     </row>
     <row r="942">
@@ -7963,7 +7963,7 @@
         <v>940</v>
       </c>
       <c r="B942" t="n">
-        <v>66.26666666666419</v>
+        <v>447.4666666665884</v>
       </c>
     </row>
     <row r="943">
@@ -7971,7 +7971,7 @@
         <v>941</v>
       </c>
       <c r="B943" t="n">
-        <v>85.5666666666631</v>
+        <v>373.3166666666558</v>
       </c>
     </row>
     <row r="944">
@@ -7979,7 +7979,7 @@
         <v>942</v>
       </c>
       <c r="B944" t="n">
-        <v>70.23333333333063</v>
+        <v>367.233333333328</v>
       </c>
     </row>
     <row r="945">
@@ -7987,7 +7987,7 @@
         <v>943</v>
       </c>
       <c r="B945" t="n">
-        <v>65.73333333333089</v>
+        <v>383.7666666666463</v>
       </c>
     </row>
     <row r="946">
@@ -7995,7 +7995,7 @@
         <v>944</v>
       </c>
       <c r="B946" t="n">
-        <v>62.54999999999773</v>
+        <v>402.5499999999626</v>
       </c>
     </row>
     <row r="947">
@@ -8003,7 +8003,7 @@
         <v>945</v>
       </c>
       <c r="B947" t="n">
-        <v>66.14999999999753</v>
+        <v>382.2333333333144</v>
       </c>
     </row>
     <row r="948">
@@ -8011,7 +8011,7 @@
         <v>946</v>
       </c>
       <c r="B948" t="n">
-        <v>58.54999999999796</v>
+        <v>488.0333333332181</v>
       </c>
     </row>
     <row r="949">
@@ -8019,7 +8019,7 @@
         <v>947</v>
       </c>
       <c r="B949" t="n">
-        <v>81.83333333332997</v>
+        <v>428.9333333332719</v>
       </c>
     </row>
     <row r="950">
@@ -8027,7 +8027,7 @@
         <v>948</v>
       </c>
       <c r="B950" t="n">
-        <v>69.51666666666401</v>
+        <v>420.3999999999463</v>
       </c>
     </row>
     <row r="951">
@@ -8035,7 +8035,7 @@
         <v>949</v>
       </c>
       <c r="B951" t="n">
-        <v>66.1666666666642</v>
+        <v>504.6166666665364</v>
       </c>
     </row>
     <row r="952">
@@ -8043,7 +8043,7 @@
         <v>950</v>
       </c>
       <c r="B952" t="n">
-        <v>75.94999999999698</v>
+        <v>399.0166666666324</v>
       </c>
     </row>
     <row r="953">
@@ -8051,7 +8051,7 @@
         <v>951</v>
       </c>
       <c r="B953" t="n">
-        <v>61.86666666666444</v>
+        <v>475.0166666665633</v>
       </c>
     </row>
     <row r="954">
@@ -8059,7 +8059,7 @@
         <v>952</v>
       </c>
       <c r="B954" t="n">
-        <v>86.74999999999636</v>
+        <v>443.9166666665916</v>
       </c>
     </row>
     <row r="955">
@@ -8067,7 +8067,7 @@
         <v>953</v>
       </c>
       <c r="B955" t="n">
-        <v>72.08333333333053</v>
+        <v>532.9666666665106</v>
       </c>
     </row>
     <row r="956">
@@ -8075,7 +8075,7 @@
         <v>954</v>
       </c>
       <c r="B956" t="n">
-        <v>75.08333333333036</v>
+        <v>372.4666666666566</v>
       </c>
     </row>
     <row r="957">
@@ -8083,7 +8083,7 @@
         <v>955</v>
       </c>
       <c r="B957" t="n">
-        <v>79.03333333333013</v>
+        <v>427.8166666666062</v>
       </c>
     </row>
     <row r="958">
@@ -8091,7 +8091,7 @@
         <v>956</v>
       </c>
       <c r="B958" t="n">
-        <v>70.2499999999973</v>
+        <v>450.2166666665859</v>
       </c>
     </row>
     <row r="959">
@@ -8099,7 +8099,7 @@
         <v>957</v>
       </c>
       <c r="B959" t="n">
-        <v>70.48333333333062</v>
+        <v>443.6166666665919</v>
       </c>
     </row>
     <row r="960">
@@ -8107,7 +8107,7 @@
         <v>958</v>
       </c>
       <c r="B960" t="n">
-        <v>75.18333333333035</v>
+        <v>436.866666666598</v>
       </c>
     </row>
     <row r="961">
@@ -8115,7 +8115,7 @@
         <v>959</v>
       </c>
       <c r="B961" t="n">
-        <v>61.44999999999779</v>
+        <v>353.2166666666741</v>
       </c>
     </row>
     <row r="962">
@@ -8123,7 +8123,7 @@
         <v>960</v>
       </c>
       <c r="B962" t="n">
-        <v>72.78333333333049</v>
+        <v>440.7833333332611</v>
       </c>
     </row>
     <row r="963">
@@ -8131,7 +8131,7 @@
         <v>961</v>
       </c>
       <c r="B963" t="n">
-        <v>82.04999999999663</v>
+        <v>423.4666666666102</v>
       </c>
     </row>
     <row r="964">
@@ -8139,7 +8139,7 @@
         <v>962</v>
       </c>
       <c r="B964" t="n">
-        <v>71.06666666666392</v>
+        <v>365.1999999999965</v>
       </c>
     </row>
     <row r="965">
@@ -8147,7 +8147,7 @@
         <v>963</v>
       </c>
       <c r="B965" t="n">
-        <v>69.79999999999733</v>
+        <v>473.883333333231</v>
       </c>
     </row>
     <row r="966">
@@ -8155,7 +8155,7 @@
         <v>964</v>
       </c>
       <c r="B966" t="n">
-        <v>64.51666666666429</v>
+        <v>423.0333333332773</v>
       </c>
     </row>
     <row r="967">
@@ -8163,7 +8163,7 @@
         <v>965</v>
       </c>
       <c r="B967" t="n">
-        <v>68.41666666666407</v>
+        <v>382.0666666666478</v>
       </c>
     </row>
     <row r="968">
@@ -8171,7 +8171,7 @@
         <v>966</v>
       </c>
       <c r="B968" t="n">
-        <v>59.63333333333123</v>
+        <v>462.2499999999083</v>
       </c>
     </row>
     <row r="969">
@@ -8179,7 +8179,7 @@
         <v>967</v>
       </c>
       <c r="B969" t="n">
-        <v>69.54999999999734</v>
+        <v>491.5166666665483</v>
       </c>
     </row>
     <row r="970">
@@ -8187,7 +8187,7 @@
         <v>968</v>
       </c>
       <c r="B970" t="n">
-        <v>58.93333333333127</v>
+        <v>365.4499999999963</v>
       </c>
     </row>
     <row r="971">
@@ -8195,7 +8195,7 @@
         <v>969</v>
       </c>
       <c r="B971" t="n">
-        <v>65.08333333333093</v>
+        <v>364.6666666666637</v>
       </c>
     </row>
     <row r="972">
@@ -8203,7 +8203,7 @@
         <v>970</v>
       </c>
       <c r="B972" t="n">
-        <v>80.81666666666337</v>
+        <v>385.8333333333111</v>
       </c>
     </row>
     <row r="973">
@@ -8211,7 +8211,7 @@
         <v>971</v>
       </c>
       <c r="B973" t="n">
-        <v>64.16666666666431</v>
+        <v>502.6333333332049</v>
       </c>
     </row>
     <row r="974">
@@ -8219,7 +8219,7 @@
         <v>972</v>
       </c>
       <c r="B974" t="n">
-        <v>72.48333333333051</v>
+        <v>388.5833333333086</v>
       </c>
     </row>
     <row r="975">
@@ -8227,7 +8227,7 @@
         <v>973</v>
       </c>
       <c r="B975" t="n">
-        <v>75.73333333333032</v>
+        <v>397.2333333333007</v>
       </c>
     </row>
     <row r="976">
@@ -8235,7 +8235,7 @@
         <v>974</v>
       </c>
       <c r="B976" t="n">
-        <v>95.66666666666252</v>
+        <v>431.03333333327</v>
       </c>
     </row>
     <row r="977">
@@ -8243,7 +8243,7 @@
         <v>975</v>
       </c>
       <c r="B977" t="n">
-        <v>60.03333333333121</v>
+        <v>408.8499999999568</v>
       </c>
     </row>
     <row r="978">
@@ -8251,7 +8251,7 @@
         <v>976</v>
       </c>
       <c r="B978" t="n">
-        <v>68.99999999999737</v>
+        <v>524.5166666665183</v>
       </c>
     </row>
     <row r="979">
@@ -8259,7 +8259,7 @@
         <v>977</v>
       </c>
       <c r="B979" t="n">
-        <v>68.91666666666404</v>
+        <v>446.0166666665897</v>
       </c>
     </row>
     <row r="980">
@@ -8267,7 +8267,7 @@
         <v>978</v>
       </c>
       <c r="B980" t="n">
-        <v>88.03333333332962</v>
+        <v>411.0999999999548</v>
       </c>
     </row>
     <row r="981">
@@ -8275,7 +8275,7 @@
         <v>979</v>
       </c>
       <c r="B981" t="n">
-        <v>70.38333333333063</v>
+        <v>539.499999999838</v>
       </c>
     </row>
     <row r="982">
@@ -8283,7 +8283,7 @@
         <v>980</v>
       </c>
       <c r="B982" t="n">
-        <v>65.5333333333309</v>
+        <v>476.8333333332283</v>
       </c>
     </row>
     <row r="983">
@@ -8291,7 +8291,7 @@
         <v>981</v>
       </c>
       <c r="B983" t="n">
-        <v>69.09999999999737</v>
+        <v>414.2999999999519</v>
       </c>
     </row>
     <row r="984">
@@ -8299,7 +8299,7 @@
         <v>982</v>
       </c>
       <c r="B984" t="n">
-        <v>75.03333333333036</v>
+        <v>407.1833333332917</v>
       </c>
     </row>
     <row r="985">
@@ -8307,7 +8307,7 @@
         <v>983</v>
       </c>
       <c r="B985" t="n">
-        <v>92.93333333332934</v>
+        <v>459.3166666665776</v>
       </c>
     </row>
     <row r="986">
@@ -8315,7 +8315,7 @@
         <v>984</v>
       </c>
       <c r="B986" t="n">
-        <v>80.91666666666336</v>
+        <v>417.3499999999491</v>
       </c>
     </row>
     <row r="987">
@@ -8323,7 +8323,7 @@
         <v>985</v>
       </c>
       <c r="B987" t="n">
-        <v>94.49999999999592</v>
+        <v>471.7833333332329</v>
       </c>
     </row>
     <row r="988">
@@ -8331,7 +8331,7 @@
         <v>986</v>
       </c>
       <c r="B988" t="n">
-        <v>75.06666666666369</v>
+        <v>491.7499999998814</v>
       </c>
     </row>
     <row r="989">
@@ -8339,7 +8339,7 @@
         <v>987</v>
       </c>
       <c r="B989" t="n">
-        <v>85.28333333332978</v>
+        <v>348.1666666666787</v>
       </c>
     </row>
     <row r="990">
@@ -8347,7 +8347,7 @@
         <v>988</v>
       </c>
       <c r="B990" t="n">
-        <v>68.4499999999974</v>
+        <v>410.4333333332887</v>
       </c>
     </row>
     <row r="991">
@@ -8355,7 +8355,7 @@
         <v>989</v>
       </c>
       <c r="B991" t="n">
-        <v>63.18333333333103</v>
+        <v>364.8166666666635</v>
       </c>
     </row>
     <row r="992">
@@ -8363,7 +8363,7 @@
         <v>990</v>
       </c>
       <c r="B992" t="n">
-        <v>67.44999999999746</v>
+        <v>477.8833333332274</v>
       </c>
     </row>
     <row r="993">
@@ -8371,7 +8371,7 @@
         <v>991</v>
       </c>
       <c r="B993" t="n">
-        <v>64.98333333333093</v>
+        <v>486.1499999998865</v>
       </c>
     </row>
     <row r="994">
@@ -8379,7 +8379,7 @@
         <v>992</v>
       </c>
       <c r="B994" t="n">
-        <v>76.14999999999696</v>
+        <v>418.2333333332816</v>
       </c>
     </row>
     <row r="995">
@@ -8387,7 +8387,7 @@
         <v>993</v>
       </c>
       <c r="B995" t="n">
-        <v>66.88333333333082</v>
+        <v>404.4166666666275</v>
       </c>
     </row>
     <row r="996">
@@ -8395,7 +8395,7 @@
         <v>994</v>
       </c>
       <c r="B996" t="n">
-        <v>92.86666666666268</v>
+        <v>484.1999999998883</v>
       </c>
     </row>
     <row r="997">
@@ -8403,7 +8403,7 @@
         <v>995</v>
       </c>
       <c r="B997" t="n">
-        <v>74.8666666666637</v>
+        <v>493.5833333332131</v>
       </c>
     </row>
     <row r="998">
@@ -8411,7 +8411,7 @@
         <v>996</v>
       </c>
       <c r="B998" t="n">
-        <v>81.49999999999666</v>
+        <v>430.649999999937</v>
       </c>
     </row>
     <row r="999">
@@ -8419,7 +8419,7 @@
         <v>997</v>
       </c>
       <c r="B999" t="n">
-        <v>85.09999999999646</v>
+        <v>424.7833333332757</v>
       </c>
     </row>
     <row r="1000">
@@ -8427,7 +8427,7 @@
         <v>998</v>
       </c>
       <c r="B1000" t="n">
-        <v>73.14999999999714</v>
+        <v>394.7999999999696</v>
       </c>
     </row>
     <row r="1001">
@@ -8435,7 +8435,7 @@
         <v>999</v>
       </c>
       <c r="B1001" t="n">
-        <v>100.9999999999956</v>
+        <v>437.249999999931</v>
       </c>
     </row>
   </sheetData>
